--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="132">
   <si>
     <t>Activity</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Diesel, synthetic</t>
-  </si>
-  <si>
-    <t>Lubricating oil production, synthetic, Fischer Tropsch process, economic allocation</t>
   </si>
   <si>
     <t>Lubricating oil, synthetic</t>
@@ -391,28 +388,34 @@
     <t>wastewater, average</t>
   </si>
   <si>
-    <t>kerosene</t>
-  </si>
-  <si>
     <t>diesel, synthetic, vehicle grade</t>
   </si>
   <si>
-    <t>Kerosene, synthetic, from electrolysis-based hydrogen, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>Diesel, synthetic, from electrolysis-based hydrogen, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>Kerosene, synthetic, from electrolysis-based hydrogen, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>Diesel, synthetic, from electrolysis-based hydrogen, energy allocation, at fuelling station</t>
-  </si>
-  <si>
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
     <t>synfuel from electrolysis</t>
+  </si>
+  <si>
+    <t>lubricating oil production, synthetic, Fischer Tropsch process, economic allocation</t>
+  </si>
+  <si>
+    <t>lubricating oil, synthetic</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from electrolysis-based hydrogen, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene, synthetic</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from electrolysis-based hydrogen, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from electrolysis-based hydrogen, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from electrolysis-based hydrogen, energy allocation, at fuelling station</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -882,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -914,15 +917,15 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -961,7 +964,7 @@
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -976,10 +979,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>16</v>
@@ -1005,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1053,7 @@
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17">
         <v>6.7000000000000001E-12</v>
@@ -1065,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1096,7 +1099,7 @@
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="15">
         <v>7.06</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1146,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1190,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>9</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
@@ -1228,15 +1231,15 @@
         <v>100</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="16">
         <v>1.00057</v>
@@ -1256,7 +1259,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1286,13 +1289,13 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>6</v>
@@ -1306,18 +1309,18 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>20</v>
@@ -1331,12 +1334,12 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="21">
         <v>1.04E-10</v>
@@ -1356,18 +1359,18 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>6</v>
@@ -1381,18 +1384,18 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>25</v>
@@ -1406,18 +1409,18 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>6</v>
@@ -1431,21 +1434,21 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
@@ -1456,12 +1459,12 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1470,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16" t="s">
@@ -1481,18 +1484,18 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B40" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>25</v>
@@ -1506,7 +1509,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1519,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1587,13 +1590,13 @@
         <v>3</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="I49" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>9</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B50" s="16">
         <v>1</v>
@@ -1625,15 +1628,15 @@
         <v>100</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="16">
         <v>1.00057</v>
@@ -1683,13 +1686,13 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>6</v>
@@ -1703,18 +1706,18 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>20</v>
@@ -1728,12 +1731,12 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="21">
         <v>2.5999999999999998E-10</v>
@@ -1753,18 +1756,18 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>6</v>
@@ -1778,18 +1781,18 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>25</v>
@@ -1803,18 +1806,18 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>6</v>
@@ -1828,21 +1831,21 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
@@ -1853,12 +1856,12 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1867,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
@@ -1878,18 +1881,18 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B61" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>25</v>
@@ -1903,7 +1906,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1916,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1940,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1984,13 +1987,13 @@
         <v>3</v>
       </c>
       <c r="G70" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="I70" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>9</v>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B71" s="16">
         <v>1</v>
@@ -2022,15 +2025,15 @@
         <v>100</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="16">
         <v>1.00057</v>
@@ -2050,7 +2053,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2080,13 +2083,13 @@
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>6</v>
@@ -2100,18 +2103,18 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>20</v>
@@ -2125,12 +2128,12 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="21">
         <v>1.04E-10</v>
@@ -2150,18 +2153,18 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>6</v>
@@ -2175,18 +2178,18 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>25</v>
@@ -2200,18 +2203,18 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>6</v>
@@ -2225,21 +2228,21 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
@@ -2250,12 +2253,12 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2264,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
@@ -2275,18 +2278,18 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B82" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>25</v>
@@ -2300,7 +2303,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2313,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2381,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="G91" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="I91" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I91" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J91" s="15" t="s">
         <v>9</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="92" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B92" s="16">
         <v>1</v>
@@ -2419,15 +2422,15 @@
         <v>100</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="16">
         <v>1.00057</v>
@@ -2477,13 +2480,13 @@
     </row>
     <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>6</v>
@@ -2497,18 +2500,18 @@
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
       <c r="K95" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>20</v>
@@ -2522,12 +2525,12 @@
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
       <c r="K96" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="21">
         <v>2.5999999999999998E-10</v>
@@ -2547,18 +2550,18 @@
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>6</v>
@@ -2572,18 +2575,18 @@
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>25</v>
@@ -2597,18 +2600,18 @@
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>6</v>
@@ -2622,21 +2625,21 @@
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="16" t="s">
@@ -2647,12 +2650,12 @@
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
       <c r="K101" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2661,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="16" t="s">
@@ -2672,18 +2675,18 @@
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
       <c r="K102" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B103" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>25</v>
@@ -2697,7 +2700,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2710,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2726,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2758,15 +2761,15 @@
         <v>9</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2805,7 +2808,7 @@
     </row>
     <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="15">
         <v>1</v>
@@ -2820,10 +2823,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>16</v>
@@ -2849,7 +2852,7 @@
         <v>17</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2894,7 +2897,7 @@
     </row>
     <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="17">
         <v>6.7000000000000001E-12</v>
@@ -2909,10 +2912,10 @@
         <v>18</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2940,7 +2943,7 @@
     </row>
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B121" s="15">
         <v>2</v>
@@ -2949,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>22</v>
@@ -2964,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2980,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3012,15 +3015,15 @@
         <v>9</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3059,7 +3062,7 @@
     </row>
     <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133" s="15">
         <v>1</v>
@@ -3074,10 +3077,10 @@
         <v>15</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3100,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3145,7 +3148,7 @@
     </row>
     <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B137" s="17">
         <v>6.7000000000000001E-12</v>
@@ -3160,10 +3163,10 @@
         <v>18</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3191,7 +3194,7 @@
     </row>
     <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B139" s="15">
         <v>2.48</v>
@@ -3200,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F139" s="15" t="s">
         <v>22</v>
@@ -3215,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3263,15 +3266,15 @@
         <v>9</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3310,7 +3313,7 @@
     </row>
     <row r="151" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B151" s="15">
         <v>1</v>
@@ -3328,7 +3331,7 @@
         <v>39</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I151" s="15" t="s">
         <v>16</v>
@@ -3354,7 +3357,7 @@
         <v>17</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3399,7 +3402,7 @@
     </row>
     <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B155" s="17">
         <v>6.7000000000000001E-12</v>
@@ -3414,10 +3417,10 @@
         <v>18</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3445,7 +3448,7 @@
     </row>
     <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B157" s="15">
         <v>1.82</v>
@@ -3454,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>22</v>
@@ -3469,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3485,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3517,15 +3520,15 @@
         <v>9</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3564,7 +3567,7 @@
     </row>
     <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B169" s="15">
         <v>1</v>
@@ -3579,10 +3582,10 @@
         <v>15</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I169" s="15" t="s">
         <v>16</v>
@@ -3608,7 +3611,7 @@
         <v>17</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3653,7 +3656,7 @@
     </row>
     <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B173" s="17">
         <v>6.7000000000000001E-12</v>
@@ -3668,10 +3671,10 @@
         <v>18</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3699,7 +3702,7 @@
     </row>
     <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B175" s="15">
         <v>0.13</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3741,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3773,15 +3776,15 @@
         <v>9</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3820,7 +3823,7 @@
     </row>
     <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B187" s="15">
         <v>1</v>
@@ -3835,10 +3838,10 @@
         <v>15</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I187" s="15" t="s">
         <v>16</v>
@@ -3864,7 +3867,7 @@
         <v>17</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3909,7 +3912,7 @@
     </row>
     <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B191" s="17">
         <v>6.7000000000000001E-12</v>
@@ -3924,10 +3927,10 @@
         <v>18</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3955,7 +3958,7 @@
     </row>
     <row r="193" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B193" s="15">
         <v>0.22</v>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3995,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4027,15 +4030,15 @@
         <v>9</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B202" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4074,7 +4077,7 @@
     </row>
     <row r="205" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B205" s="15">
         <v>1</v>
@@ -4089,10 +4092,10 @@
         <v>15</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4115,7 +4118,7 @@
         <v>17</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4160,7 +4163,7 @@
     </row>
     <row r="209" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B209" s="17">
         <v>6.7000000000000001E-12</v>
@@ -4175,10 +4178,10 @@
         <v>18</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4206,7 +4209,7 @@
     </row>
     <row r="211" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B211" s="15">
         <v>0.19</v>
@@ -4215,7 +4218,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F211" s="15" t="s">
         <v>22</v>
@@ -4230,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4278,15 +4281,15 @@
         <v>9</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B220" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4325,7 +4328,7 @@
     </row>
     <row r="223" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B223" s="15">
         <v>1</v>
@@ -4343,7 +4346,7 @@
         <v>39</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I223" s="15" t="s">
         <v>16</v>
@@ -4369,7 +4372,7 @@
         <v>17</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4414,7 +4417,7 @@
     </row>
     <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B227" s="17">
         <v>6.7000000000000001E-12</v>
@@ -4429,10 +4432,10 @@
         <v>18</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H227" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4460,7 +4463,7 @@
     </row>
     <row r="229" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B229" s="15">
         <v>0.06</v>
@@ -4469,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F229" s="15" t="s">
         <v>22</v>
@@ -4537,10 +4540,10 @@
     </row>
     <row r="238" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B238" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B238" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4608,7 +4611,7 @@
         <v>18</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4810,7 +4813,7 @@
         <v>18</v>
       </c>
       <c r="G258" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4830,12 +4833,12 @@
         <v>18</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B260" s="17">
         <v>1.9300000000000002E-9</v>
@@ -4850,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="G260" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4863,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4911,15 +4914,15 @@
         <v>9</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B269" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4952,7 +4955,7 @@
     </row>
     <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B272" s="8">
         <v>1</v>
@@ -4967,18 +4970,18 @@
         <v>15</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B273" s="3">
         <v>345000</v>
       </c>
       <c r="C273" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D273" t="s">
         <v>25</v>
@@ -4987,7 +4990,7 @@
         <v>18</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -5012,7 +5015,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B275" s="3">
         <v>7200000</v>
@@ -5027,38 +5030,38 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B276" s="3">
         <v>-828000000</v>
       </c>
       <c r="C276" t="s">
+        <v>77</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>18</v>
+      </c>
+      <c r="G276" t="s">
         <v>78</v>
-      </c>
-      <c r="D276" t="s">
-        <v>6</v>
-      </c>
-      <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B277" s="3">
         <v>-14400000</v>
       </c>
       <c r="C277" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D277" t="s">
         <v>6</v>
@@ -5067,21 +5070,21 @@
         <v>18</v>
       </c>
       <c r="G277" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B278" s="3">
         <v>1120000</v>
       </c>
       <c r="D278" t="s">
+        <v>82</v>
+      </c>
+      <c r="E278" t="s">
         <v>83</v>
-      </c>
-      <c r="E278" t="s">
-        <v>84</v>
       </c>
       <c r="F278" t="s">
         <v>22</v>
@@ -5208,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5224,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5256,15 +5259,15 @@
         <v>9</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B298" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5297,7 +5300,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5312,12 +5315,12 @@
         <v>15</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B302">
         <v>0.56999999999999995</v>
@@ -5332,32 +5335,32 @@
         <v>18</v>
       </c>
       <c r="G302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B303">
         <v>0.11</v>
       </c>
       <c r="C303" t="s">
+        <v>89</v>
+      </c>
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>18</v>
+      </c>
+      <c r="G303" t="s">
         <v>90</v>
-      </c>
-      <c r="D303" t="s">
-        <v>6</v>
-      </c>
-      <c r="F303" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B304">
         <v>0.31</v>
@@ -5372,7 +5375,7 @@
         <v>18</v>
       </c>
       <c r="G304" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5380,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="309" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5428,15 +5431,15 @@
         <v>9</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B313" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="314" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5469,7 +5472,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -5484,12 +5487,12 @@
         <v>15</v>
       </c>
       <c r="G316" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B317" s="3">
         <v>4760</v>
@@ -5504,18 +5507,18 @@
         <v>18</v>
       </c>
       <c r="G317" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B318" s="3">
         <v>-9520</v>
       </c>
       <c r="C318" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D318" t="s">
         <v>6</v>
@@ -5524,12 +5527,12 @@
         <v>18</v>
       </c>
       <c r="G318" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B319" s="3">
         <v>4760</v>
@@ -5544,12 +5547,12 @@
         <v>18</v>
       </c>
       <c r="G319" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B320" s="3">
         <v>26700</v>
@@ -5564,12 +5567,12 @@
         <v>18</v>
       </c>
       <c r="G320" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B321" s="3">
         <v>6600</v>
@@ -5584,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="129">
   <si>
     <t>Activity</t>
   </si>
@@ -75,9 +75,6 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>Heat, waste</t>
-  </si>
-  <si>
     <t>megajoule</t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t>biosphere3</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>cubic meter</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>market group for electricity, low voltage</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
   </si>
   <si>
     <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>ecoinvent</t>
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere</t>
@@ -410,6 +398,15 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from electrolysis, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reactor vessel consists of 4760 kg of steel (assuming 50% low alloyed steel and 50% chromium steel) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over a reactor lifetime of 30 years therefore 30/4 x 440 kg = 3300 kg of catalyst and 30/4 x 1780 kg = 13350 kg of sorbent is needed. Since two identical reactors are use in parallel all numbers are doubled in the unit process representing the construction of the fixed bed reactor (see Table S18). As water sorbent zeolite (Merck) is proposed. </t>
+  </si>
+  <si>
+    <t>Over a reactor lifetime of 30 years therefore 30/4 x 440 kg = 3300 kg of catalyst and 30/4 x 1780 kg = 13350 kg of sorbent is needed. Since two identical reactors are use in parallel all numbers are doubled in the unit process representing the construction of the fixed bed reactor (see Table S18).</t>
   </si>
 </sst>
 </file>
@@ -834,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K636"/>
+  <dimension ref="A1:K613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -863,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -887,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -931,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>9</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B11" s="16">
         <v>1</v>
@@ -969,15 +966,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="16">
         <v>1.00057</v>
@@ -997,12 +994,12 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="16">
         <v>6.7000000000000002E-3</v>
@@ -1011,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16" t="s">
@@ -1022,18 +1019,18 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>6</v>
@@ -1047,21 +1044,21 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
@@ -1072,12 +1069,12 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="21">
         <v>1.04E-10</v>
@@ -1097,18 +1094,18 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>6</v>
@@ -1122,21 +1119,21 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
@@ -1147,18 +1144,18 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>6</v>
@@ -1172,21 +1169,21 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B20" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
@@ -1197,12 +1194,12 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B21" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1211,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
@@ -1222,21 +1219,21 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
@@ -1247,7 +1244,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1260,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1284,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1328,13 +1325,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>9</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -1366,15 +1363,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B33" s="16">
         <v>1.00057</v>
@@ -1394,12 +1391,12 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="16">
         <v>6.7000000000000002E-3</v>
@@ -1408,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
@@ -1419,18 +1416,18 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B35" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>6</v>
@@ -1444,21 +1441,21 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B36" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16" t="s">
@@ -1469,12 +1466,12 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B37" s="21">
         <v>2.5999999999999998E-10</v>
@@ -1494,18 +1491,18 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>6</v>
@@ -1519,21 +1516,21 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B39" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16" t="s">
@@ -1544,18 +1541,18 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B40" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>6</v>
@@ -1569,21 +1566,21 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
@@ -1594,12 +1591,12 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B42" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1608,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
@@ -1619,21 +1616,21 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B43" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
@@ -1644,7 +1641,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1681,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1725,13 +1722,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>9</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B53" s="16">
         <v>1</v>
@@ -1763,15 +1760,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B54" s="16">
         <v>1.00057</v>
@@ -1791,12 +1788,12 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55" s="16">
         <v>6.7000000000000002E-3</v>
@@ -1805,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="16" t="s">
@@ -1816,18 +1813,18 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B56" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>6</v>
@@ -1841,21 +1838,21 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B57" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
@@ -1866,12 +1863,12 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B58" s="21">
         <v>1.04E-10</v>
@@ -1891,18 +1888,18 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B59" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>6</v>
@@ -1916,21 +1913,21 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B60" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
@@ -1941,18 +1938,18 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B61" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>6</v>
@@ -1966,21 +1963,21 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B62" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
@@ -1991,12 +1988,12 @@
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2005,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16" t="s">
@@ -2016,21 +2013,21 @@
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B64" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
@@ -2041,7 +2038,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2054,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2078,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2122,13 +2119,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>9</v>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B74" s="16">
         <v>1</v>
@@ -2160,15 +2157,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B75" s="16">
         <v>1.00057</v>
@@ -2188,12 +2185,12 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B76" s="16">
         <v>6.7000000000000002E-3</v>
@@ -2202,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
@@ -2213,18 +2210,18 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>6</v>
@@ -2238,21 +2235,21 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B78" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
@@ -2263,12 +2260,12 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B79" s="21">
         <v>2.5999999999999998E-10</v>
@@ -2288,18 +2285,18 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B80" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>6</v>
@@ -2313,21 +2310,21 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B81" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
@@ -2338,18 +2335,18 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B82" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>6</v>
@@ -2363,21 +2360,21 @@
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B83" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="16" t="s">
@@ -2388,12 +2385,12 @@
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B84" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2402,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16" t="s">
@@ -2413,21 +2410,21 @@
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B85" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16" t="s">
@@ -2438,7 +2435,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2451,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2499,15 +2496,15 @@
         <v>9</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2546,7 +2543,7 @@
     </row>
     <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B97" s="15">
         <v>1</v>
@@ -2561,10 +2558,10 @@
         <v>15</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I97" s="15" t="s">
         <v>16</v>
@@ -2572,7 +2569,7 @@
     </row>
     <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B98" s="15">
         <v>0.73</v>
@@ -2587,1131 +2584,1004 @@
         <v>17</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="15">
-        <v>3.6416023188405786</v>
+      <c r="A99" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="17">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B100" s="15">
-        <v>1.0754991304347825E-3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B101" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>29</v>
+    </row>
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>121</v>
+      <c r="B104" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="15">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>10</v>
+      <c r="A112" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="15">
+        <v>1</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>12</v>
+      <c r="A114" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" s="17">
+        <v>6.7000000000000001E-12</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="F114" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
-        <v>121</v>
+      <c r="A115" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B115" s="15">
-        <v>1</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>8</v>
+        <v>2.48</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="E115" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="F115" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="15">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H117" s="15" t="s">
-        <v>22</v>
+    </row>
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B118" s="15">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B119" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>41</v>
+      <c r="A119" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="B121" s="15">
-        <v>2.48</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>4</v>
+      <c r="G126" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>6</v>
+      <c r="A127" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="15">
+        <v>1</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="B128" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>51</v>
+      <c r="A129" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="17">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="15" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="B130" s="15">
+        <v>1.82</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
-        <v>118</v>
+      <c r="A133" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="B133" s="15">
         <v>1</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I133" s="15" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="15">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="15">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B137" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>41</v>
+      <c r="A137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" s="15">
-        <v>1.82</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>122</v>
+        <v>35</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="15" t="s">
-        <v>1</v>
+      <c r="A142" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="B142" s="15">
         <v>1</v>
       </c>
+      <c r="C142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>4</v>
+      <c r="B144" s="17">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="B145" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>52</v>
+      <c r="B146" s="17"/>
+    </row>
+    <row r="147" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B151" s="15">
-        <v>1</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I151" s="15" t="s">
-        <v>16</v>
+      <c r="B151" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B152" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="15">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="15">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H155" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156" s="17">
-        <v>8.7242061855670114E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G156" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="15">
+        <v>1</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="15">
+        <v>2.35</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" s="17">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H156" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B157" s="15">
-        <v>0.13</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="17"/>
-    </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>119</v>
+      <c r="D159" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B160" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>4</v>
+        <v>0.22</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B163" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="15" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B169" s="15">
-        <v>1</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I169" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B170" s="15">
-        <v>2.35</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>41</v>
+      <c r="A169" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" s="15">
-        <v>3.6416023188405786</v>
+        <v>11</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
-        <v>23</v>
+      <c r="A172" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B172" s="15">
-        <v>1.0754991304347825E-3</v>
+        <v>1</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B173" s="17">
+      <c r="A173" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174" s="17">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C173" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="15" t="s">
+      <c r="C174" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F173" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="F174" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G174" s="15" t="s">
-        <v>28</v>
+      <c r="G174" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B175" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="15" t="s">
+      <c r="F175" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F175" s="15" t="s">
+      <c r="H175" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3720,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3736,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3768,15 +3638,15 @@
         <v>9</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3815,7 +3685,7 @@
     </row>
     <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B187" s="15">
         <v>1</v>
@@ -3830,18 +3700,21 @@
         <v>15</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B188" s="15">
-        <v>2.3199999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>8</v>
@@ -3853,1848 +3726,1510 @@
         <v>17</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="15">
-        <v>3.6416023188405786</v>
+      <c r="A189" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189" s="17">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F189" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B190" s="15">
-        <v>1.0754991304347825E-3</v>
+        <v>0.06</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F190" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H190" s="15" t="s">
+    </row>
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B202" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B203" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B204" s="15">
+        <v>1</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" s="19">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="19"/>
+    </row>
+    <row r="207" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B216" s="15">
+        <v>1</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B217" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G218" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B219" s="17">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="16"/>
+      <c r="B220" s="17"/>
+      <c r="G220" s="16"/>
+    </row>
+    <row r="221" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231" s="8">
+        <v>1</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="3">
+        <v>345000</v>
+      </c>
+      <c r="C232" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B191" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D191" s="15" t="s">
+      <c r="F232" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B233" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>60</v>
+      </c>
+      <c r="B234" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>62</v>
+      </c>
+      <c r="B235" s="3">
+        <v>-828000000</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B236" s="3">
+        <v>-14400000</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>68</v>
+      </c>
+      <c r="E237" t="s">
+        <v>69</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F191" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B192" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F192" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" s="15" t="s">
+      <c r="B243" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H192" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B193" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H193" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="13" t="s">
+    </row>
+    <row r="245" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H204" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B205" s="15">
-        <v>1</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H205" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I205" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B206" s="15">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H206" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B207" s="15">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H207" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" s="15">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F208" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H208" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B209" s="17">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B210" s="17">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H210" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B211" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="D211" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G222" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B223" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G224" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B225" s="15">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G225" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="15">
-        <f>60*0.001/106.6</f>
-        <v>5.6285178236397749E-4</v>
-      </c>
-      <c r="D226" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B227" s="15">
-        <v>1</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B228" s="19">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D228" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="19"/>
-    </row>
-    <row r="230" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B231" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A237" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B239" s="15">
-        <v>1</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B240" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G240" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A241" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B241" s="15">
-        <v>1.57</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G241" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B242" s="17">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F242" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G242" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="16"/>
-      <c r="B243" s="17"/>
-      <c r="G243" s="16"/>
-    </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B247" s="8">
+        <v>300</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="8">
+        <v>1</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>60</v>
+      <c r="F248" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A252" s="7" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B251" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B259" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C259" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="D259" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E253" s="8" t="s">
+      <c r="E259" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F259" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G253" s="8" t="s">
+      <c r="G259" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B254" s="8">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B260">
         <v>1</v>
       </c>
-      <c r="C254" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F254" s="8" t="s">
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
         <v>15</v>
       </c>
-      <c r="G254" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A255" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B255" s="3">
-        <v>345000</v>
-      </c>
-      <c r="C255" t="s">
-        <v>62</v>
-      </c>
-      <c r="D255" t="s">
-        <v>24</v>
-      </c>
-      <c r="F255" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G255" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B256" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>64</v>
-      </c>
-      <c r="B257" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C257" t="s">
-        <v>32</v>
-      </c>
-      <c r="D257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>66</v>
-      </c>
-      <c r="B258" s="3">
-        <v>-828000000</v>
-      </c>
-      <c r="C258" t="s">
-        <v>67</v>
-      </c>
-      <c r="D258" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B259" s="3">
-        <v>-14400000</v>
-      </c>
-      <c r="C259" t="s">
-        <v>67</v>
-      </c>
-      <c r="D259" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" t="s">
-        <v>17</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="G260" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B260" s="3">
-        <v>1120000</v>
-      </c>
-      <c r="D260" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E260" t="s">
+      <c r="B261">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>17</v>
+      </c>
+      <c r="G261" t="s">
         <v>73</v>
       </c>
-      <c r="F260" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A262" s="7" t="s">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B262">
+        <v>0.11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>75</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263">
+        <v>0.31</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B263" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>4</v>
+      <c r="B265" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B266" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A268" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G269" s="8" t="s">
-        <v>2</v>
+      <c r="B269" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B270" s="8">
-        <v>300</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G270" s="8" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B271" s="8">
+        <v>9</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B275">
         <v>1</v>
       </c>
-      <c r="C271" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D271" s="8" t="s">
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
         <v>5</v>
       </c>
-      <c r="F271" s="8" t="s">
+      <c r="F275" t="s">
         <v>15</v>
       </c>
-      <c r="G271" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G282" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="C283" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" t="s">
-        <v>6</v>
-      </c>
-      <c r="F283" t="s">
-        <v>15</v>
-      </c>
-      <c r="G283" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B284">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C284" t="s">
-        <v>32</v>
-      </c>
-      <c r="D284" t="s">
-        <v>6</v>
-      </c>
-      <c r="F284" t="s">
-        <v>17</v>
-      </c>
-      <c r="G284" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B285">
-        <v>0.11</v>
-      </c>
-      <c r="C285" t="s">
-        <v>79</v>
-      </c>
-      <c r="D285" t="s">
-        <v>6</v>
-      </c>
-      <c r="F285" t="s">
-        <v>17</v>
-      </c>
-      <c r="G285" t="s">
+      <c r="G275" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="8" t="s">
+      <c r="B276" s="3">
+        <f>4760/2</f>
+        <v>2380</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>17</v>
+      </c>
+      <c r="G276" t="s">
         <v>81</v>
       </c>
-      <c r="B286">
-        <v>0.31</v>
-      </c>
-      <c r="C286" t="s">
-        <v>32</v>
-      </c>
-      <c r="D286" t="s">
-        <v>6</v>
-      </c>
-      <c r="F286" t="s">
-        <v>17</v>
-      </c>
-      <c r="G286" t="s">
+      <c r="H276" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B277" s="3">
+        <v>-9520</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>17</v>
+      </c>
+      <c r="G277" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A288" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B289" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="12" t="s">
+      <c r="B278" s="3">
+        <f>4760/2</f>
+        <v>2380</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A296" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E297" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G297" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" t="s">
-        <v>5</v>
-      </c>
-      <c r="F298" t="s">
-        <v>15</v>
-      </c>
-      <c r="G298" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="9" t="s">
+      <c r="H278" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B299" s="3">
-        <v>4760</v>
-      </c>
-      <c r="C299" t="s">
-        <v>32</v>
-      </c>
-      <c r="D299" t="s">
-        <v>6</v>
-      </c>
-      <c r="F299" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" t="s">
+      <c r="B279" s="3">
+        <v>26700</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" t="s">
+        <v>17</v>
+      </c>
+      <c r="G279" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B300" s="3">
-        <v>-9520</v>
-      </c>
-      <c r="C300" t="s">
-        <v>67</v>
-      </c>
-      <c r="D300" t="s">
-        <v>6</v>
-      </c>
-      <c r="F300" t="s">
-        <v>17</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="H279" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B301" s="3">
-        <v>4760</v>
-      </c>
-      <c r="C301" t="s">
-        <v>32</v>
-      </c>
-      <c r="D301" t="s">
-        <v>6</v>
-      </c>
-      <c r="F301" t="s">
-        <v>17</v>
-      </c>
-      <c r="G301" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B302" s="3">
-        <v>26700</v>
-      </c>
-      <c r="C302" t="s">
-        <v>32</v>
-      </c>
-      <c r="D302" t="s">
-        <v>6</v>
-      </c>
-      <c r="F302" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B303" s="3">
+      <c r="B280" s="3">
         <v>6600</v>
       </c>
-      <c r="C303" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" t="s">
-        <v>6</v>
-      </c>
-      <c r="F303" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="3"/>
-    </row>
-    <row r="315" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" t="s">
+        <v>17</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H280" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="2"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B310" s="6"/>
+    </row>
+    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
-      <c r="B315" s="2"/>
-    </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="6"/>
+      <c r="G317" s="6"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="4"/>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="4"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="G325" s="4"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B329" s="5"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B330" s="5"/>
-    </row>
-    <row r="331" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
-      <c r="B331" s="2"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B333" s="6"/>
+      <c r="B322" s="2"/>
+    </row>
+    <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="3"/>
     </row>
     <row r="338" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A340" s="6"/>
-      <c r="G340" s="6"/>
-    </row>
-    <row r="341" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A341" s="4"/>
-      <c r="G341" s="4"/>
-    </row>
-    <row r="342" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A342" s="4"/>
-      <c r="G342" s="4"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="345" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="352" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B358" s="3"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B359" s="3"/>
-    </row>
-    <row r="361" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="4"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="2"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B356" s="6"/>
+    </row>
+    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
-      <c r="B361" s="2"/>
-    </row>
-    <row r="368" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="6"/>
+      <c r="G363" s="6"/>
+    </row>
+    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="4"/>
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="4"/>
+      <c r="G365" s="4"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="G371" s="4"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B375" s="5"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B376" s="5"/>
-    </row>
-    <row r="377" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-      <c r="B377" s="2"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B379" s="6"/>
-    </row>
-    <row r="384" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="3"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="3"/>
+    </row>
+    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A386" s="6"/>
-      <c r="G386" s="6"/>
-    </row>
-    <row r="387" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A387" s="4"/>
-      <c r="G387" s="4"/>
-    </row>
-    <row r="388" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A388" s="4"/>
-      <c r="G388" s="4"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="391" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
-      <c r="B391" s="2"/>
-    </row>
-    <row r="398" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B404" s="3"/>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B405" s="3"/>
-    </row>
-    <row r="407" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1"/>
+      <c r="B400" s="2"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B402" s="6"/>
+    </row>
+    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
-      <c r="B407" s="2"/>
-    </row>
-    <row r="414" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" s="6"/>
+      <c r="G409" s="6"/>
+    </row>
+    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="4"/>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="4"/>
+      <c r="G411" s="4"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-      <c r="G417" s="4"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B421" s="5"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B422" s="5"/>
-    </row>
-    <row r="423" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A423" s="1"/>
-      <c r="B423" s="2"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B425" s="6"/>
-    </row>
-    <row r="430" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="421" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="3"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="3"/>
+    </row>
+    <row r="430" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A432" s="6"/>
-      <c r="G432" s="6"/>
-    </row>
-    <row r="433" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A433" s="4"/>
-      <c r="G433" s="4"/>
-    </row>
-    <row r="434" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A434" s="4"/>
-      <c r="G434" s="4"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
-      <c r="B437" s="2"/>
-    </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B450" s="3"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B451" s="3"/>
+    </row>
+    <row r="440" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="4"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B444" s="5"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B445" s="5"/>
+    </row>
+    <row r="446" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+      <c r="B446" s="2"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B448" s="6"/>
     </row>
     <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
-      <c r="B453" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A455" s="6"/>
+      <c r="G455" s="6"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="4"/>
+      <c r="G456" s="4"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="4"/>
+      <c r="G457" s="4"/>
     </row>
     <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
-      <c r="G463" s="4"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B467" s="5"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B468" s="5"/>
-    </row>
-    <row r="469" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A469" s="1"/>
-      <c r="B469" s="2"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B471" s="6"/>
-    </row>
-    <row r="476" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="467" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B473" s="3"/>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B474" s="3"/>
+    </row>
+    <row r="476" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A478" s="6"/>
-      <c r="G478" s="6"/>
-    </row>
-    <row r="479" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A479" s="4"/>
-      <c r="G479" s="4"/>
-    </row>
-    <row r="480" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A480" s="4"/>
-      <c r="G480" s="4"/>
-    </row>
-    <row r="483" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="483" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
-      <c r="B483" s="2"/>
-    </row>
-    <row r="490" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B496" s="3"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B497" s="3"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="4"/>
+      <c r="G486" s="4"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B490" s="5"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+      <c r="B492" s="2"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B494" s="6"/>
     </row>
     <row r="499" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
-      <c r="B499" s="2"/>
-    </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A509" s="4"/>
-      <c r="G509" s="4"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B513" s="5"/>
-    </row>
-    <row r="515" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A515" s="1"/>
-      <c r="B515" s="2"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B517" s="6"/>
-    </row>
-    <row r="522" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A524" s="6"/>
-      <c r="G524" s="6"/>
-    </row>
-    <row r="525" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A525" s="4"/>
-      <c r="G525" s="4"/>
-    </row>
-    <row r="526" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A526" s="4"/>
-      <c r="G526" s="4"/>
-    </row>
-    <row r="528" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" s="6"/>
+      <c r="G501" s="6"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="4"/>
+      <c r="G502" s="4"/>
+    </row>
+    <row r="503" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A503" s="4"/>
+      <c r="G503" s="4"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="2"/>
+    </row>
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B518" s="3"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B519" s="3"/>
+    </row>
+    <row r="521" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="2"/>
+    </row>
+    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
-      <c r="B528" s="2"/>
-    </row>
-    <row r="535" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B541" s="3"/>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B542" s="3"/>
-    </row>
-    <row r="544" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="4"/>
+      <c r="G531" s="4"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B535" s="5"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B536" s="5"/>
+    </row>
+    <row r="537" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A537" s="1"/>
+      <c r="B537" s="2"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B539" s="6"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
-      <c r="B544" s="2"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546" s="6"/>
+      <c r="G546" s="6"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="4"/>
+      <c r="G547" s="4"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="4"/>
+      <c r="G548" s="4"/>
     </row>
     <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="4"/>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B558" s="5"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B559" s="5"/>
-    </row>
-    <row r="560" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A560" s="1"/>
-      <c r="B560" s="2"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B562" s="6"/>
-    </row>
-    <row r="567" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B551" s="2"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B564" s="3"/>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B565" s="3"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A569" s="6"/>
-      <c r="G569" s="6"/>
-    </row>
-    <row r="570" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A570" s="4"/>
-      <c r="G570" s="4"/>
-    </row>
-    <row r="571" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A571" s="4"/>
-      <c r="G571" s="4"/>
-    </row>
-    <row r="574" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B567" s="2"/>
+    </row>
+    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
-      <c r="B574" s="2"/>
-    </row>
-    <row r="581" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B587" s="3"/>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B588" s="3"/>
-    </row>
-    <row r="590" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="577" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A577" s="4"/>
+      <c r="G577" s="4"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B581" s="5"/>
+    </row>
+    <row r="583" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A583" s="1"/>
+      <c r="B583" s="2"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B585" s="6"/>
+    </row>
+    <row r="590" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
-      <c r="B590" s="2"/>
-    </row>
-    <row r="597" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="600" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A600" s="4"/>
-      <c r="G600" s="4"/>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B604" s="5"/>
-    </row>
-    <row r="606" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A606" s="1"/>
-      <c r="B606" s="2"/>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B608" s="6"/>
-    </row>
-    <row r="613" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A592" s="6"/>
+      <c r="G592" s="6"/>
+    </row>
+    <row r="593" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A593" s="4"/>
+      <c r="G593" s="4"/>
+    </row>
+    <row r="594" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A594" s="4"/>
+      <c r="G594" s="4"/>
+    </row>
+    <row r="596" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A596" s="1"/>
+      <c r="B596" s="2"/>
+    </row>
+    <row r="602" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A602" s="1"/>
+    </row>
+    <row r="607" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A607" s="1"/>
+      <c r="B607" s="2"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A615" s="6"/>
-      <c r="G615" s="6"/>
-    </row>
-    <row r="616" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A616" s="4"/>
-      <c r="G616" s="4"/>
-    </row>
-    <row r="617" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A617" s="4"/>
-      <c r="G617" s="4"/>
-    </row>
-    <row r="619" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A619" s="1"/>
-      <c r="B619" s="2"/>
-    </row>
-    <row r="625" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="630" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A630" s="1"/>
-      <c r="B630" s="2"/>
-    </row>
-    <row r="636" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A636" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -141,19 +141,10 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Kerosene, synthetic</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>Naphtha, synthetic</t>
@@ -407,6 +398,15 @@
   </si>
   <si>
     <t>Over a reactor lifetime of 30 years therefore 30/4 x 440 kg = 3300 kg of catalyst and 30/4 x 1780 kg = 13350 kg of sorbent is needed. Since two identical reactors are use in parallel all numbers are doubled in the unit process representing the construction of the fixed bed reactor (see Table S18).</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -833,37 +833,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -879,15 +879,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -903,12 +903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -928,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>9</v>
@@ -943,9 +943,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="16">
         <v>1</v>
@@ -966,15 +966,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="16">
         <v>1.00057</v>
@@ -994,10 +994,10 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -1022,15 +1022,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>6</v>
@@ -1044,18 +1044,18 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -1069,12 +1069,12 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" s="21">
         <v>1.04E-10</v>
@@ -1094,18 +1094,18 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>6</v>
@@ -1119,18 +1119,18 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>22</v>
@@ -1144,18 +1144,18 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>6</v>
@@ -1169,21 +1169,21 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
@@ -1194,12 +1194,12 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
@@ -1219,18 +1219,18 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="B22" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>22</v>
@@ -1244,12 +1244,12 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B23" s="21">
         <f>(B12-1)*3.14</f>
@@ -1271,20 +1271,20 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="22"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1300,15 +1300,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -1349,13 +1349,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>9</v>
@@ -1364,9 +1364,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -1387,15 +1387,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B34" s="16">
         <v>1.00057</v>
@@ -1418,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
@@ -1443,15 +1443,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>6</v>
@@ -1465,18 +1465,18 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>18</v>
@@ -1490,12 +1490,12 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" s="21">
         <v>2.5999999999999998E-10</v>
@@ -1515,18 +1515,18 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>6</v>
@@ -1540,18 +1540,18 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
@@ -1565,18 +1565,18 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>6</v>
@@ -1590,21 +1590,21 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
@@ -1615,12 +1615,12 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" s="16">
         <v>3.2599999999999997E-2</v>
@@ -1629,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
@@ -1640,18 +1640,18 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="B44" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>22</v>
@@ -1665,12 +1665,12 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B45" s="21">
         <f>(B34-1)*3.14</f>
@@ -1692,20 +1692,20 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="22"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -1721,15 +1721,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
@@ -1745,12 +1745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>9</v>
@@ -1785,9 +1785,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" s="16">
         <v>1</v>
@@ -1808,15 +1808,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="16">
         <v>1.00057</v>
@@ -1836,10 +1836,10 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>23</v>
       </c>
@@ -1864,15 +1864,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B58" s="21">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>6</v>
@@ -1886,18 +1886,18 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B59" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>18</v>
@@ -1911,12 +1911,12 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="21">
         <v>1.04E-10</v>
@@ -1936,18 +1936,18 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>6</v>
@@ -1961,18 +1961,18 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62" s="21">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>22</v>
@@ -1986,18 +1986,18 @@
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B63" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>6</v>
@@ -2011,21 +2011,21 @@
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B64" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
@@ -2036,12 +2036,12 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2050,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
@@ -2061,18 +2061,18 @@
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="B66" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>22</v>
@@ -2086,12 +2086,12 @@
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B67" s="21">
         <f>(B56-1)*3.14</f>
@@ -2113,20 +2113,20 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="22"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2142,15 +2142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>5</v>
       </c>
@@ -2166,12 +2166,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -2191,13 +2191,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>9</v>
@@ -2206,9 +2206,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B77" s="16">
         <v>1</v>
@@ -2229,15 +2229,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78" s="16">
         <v>1.00057</v>
@@ -2260,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>23</v>
       </c>
@@ -2285,15 +2285,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" s="16">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>6</v>
@@ -2307,18 +2307,18 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81" s="21">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>18</v>
@@ -2332,12 +2332,12 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" s="21">
         <v>2.5999999999999998E-10</v>
@@ -2357,18 +2357,18 @@
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83" s="21">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>6</v>
@@ -2382,18 +2382,18 @@
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84" s="21">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>22</v>
@@ -2407,18 +2407,18 @@
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B85" s="21">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>6</v>
@@ -2432,21 +2432,21 @@
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B86" s="16">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="16" t="s">
@@ -2457,12 +2457,12 @@
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B87" s="16">
         <v>3.2599999999999997E-2</v>
@@ -2471,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16" t="s">
@@ -2482,18 +2482,18 @@
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="B88" s="21">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>22</v>
@@ -2507,12 +2507,12 @@
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B89" s="21">
         <f>(B78-1)*3.14</f>
@@ -2534,20 +2534,20 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="22"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
@@ -2555,15 +2555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>7</v>
       </c>
@@ -2587,15 +2587,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>35</v>
       </c>
@@ -2603,12 +2603,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>11</v>
       </c>
@@ -2637,9 +2637,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B101" s="15">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>37</v>
@@ -2663,9 +2663,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B102" s="15">
         <v>0.73</v>
@@ -2680,13 +2680,13 @@
         <v>17</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,9 +2709,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B104" s="15">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>20</v>
@@ -2729,16 +2729,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>1</v>
       </c>
@@ -2746,15 +2746,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>7</v>
       </c>
@@ -2778,15 +2778,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>35</v>
       </c>
@@ -2794,12 +2794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>11</v>
       </c>
@@ -2828,9 +2828,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116" s="15">
         <v>1</v>
@@ -2845,15 +2845,15 @@
         <v>15</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B117" s="15">
         <v>0.65</v>
@@ -2868,13 +2868,13 @@
         <v>17</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>38</v>
       </c>
@@ -2897,9 +2897,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B119" s="15">
         <v>2.48</v>
@@ -2908,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>20</v>
@@ -2917,16 +2917,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
@@ -2966,15 +2966,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>35</v>
       </c>
@@ -2982,12 +2982,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>11</v>
       </c>
@@ -3016,9 +3016,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B131" s="15">
         <v>1</v>
@@ -3042,9 +3042,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B132" s="15">
         <v>0.98</v>
@@ -3059,13 +3059,13 @@
         <v>17</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H132" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>38</v>
       </c>
@@ -3088,9 +3088,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B134" s="15">
         <v>1.82</v>
@@ -3099,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>20</v>
@@ -3108,16 +3108,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>7</v>
       </c>
@@ -3157,15 +3157,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>35</v>
       </c>
@@ -3173,12 +3173,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>11</v>
       </c>
@@ -3207,9 +3207,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B146" s="15">
         <v>1</v>
@@ -3233,9 +3233,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B147" s="15">
         <v>2.1</v>
@@ -3250,13 +3250,13 @@
         <v>17</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>38</v>
       </c>
@@ -3279,9 +3279,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B149" s="15">
         <v>0.13</v>
@@ -3299,18 +3299,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
@@ -3318,15 +3318,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>7</v>
       </c>
@@ -3350,15 +3350,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>35</v>
       </c>
@@ -3366,12 +3366,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>11</v>
       </c>
@@ -3400,9 +3400,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B161" s="15">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>37</v>
@@ -3426,9 +3426,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B162" s="15">
         <v>2.35</v>
@@ -3443,13 +3443,13 @@
         <v>17</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>38</v>
       </c>
@@ -3472,9 +3472,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B164" s="15">
         <v>0.22</v>
@@ -3492,16 +3492,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>1</v>
       </c>
@@ -3509,15 +3509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>7</v>
       </c>
@@ -3541,15 +3541,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>35</v>
       </c>
@@ -3557,12 +3557,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>11</v>
       </c>
@@ -3591,9 +3591,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B176" s="15">
         <v>1</v>
@@ -3608,15 +3608,15 @@
         <v>15</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B177" s="15">
         <v>2.3199999999999998</v>
@@ -3631,13 +3631,13 @@
         <v>17</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>38</v>
       </c>
@@ -3660,9 +3660,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B179" s="15">
         <v>0.19</v>
@@ -3671,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>20</v>
@@ -3680,16 +3680,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>7</v>
       </c>
@@ -3729,15 +3729,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>35</v>
       </c>
@@ -3745,12 +3745,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>11</v>
       </c>
@@ -3779,9 +3779,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B191" s="15">
         <v>1</v>
@@ -3805,9 +3805,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B192" s="15">
         <v>2.2599999999999998</v>
@@ -3822,13 +3822,13 @@
         <v>17</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H192" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>38</v>
       </c>
@@ -3851,9 +3851,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B194" s="15">
         <v>0.06</v>
@@ -3862,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>20</v>
@@ -3871,16 +3871,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>1</v>
       </c>
@@ -3888,15 +3888,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>35</v>
       </c>
@@ -3936,12 +3936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>11</v>
       </c>
@@ -3964,9 +3964,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B206" s="15">
         <v>0.875</v>
@@ -3984,9 +3984,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B207" s="15">
         <v>0.125</v>
@@ -4001,12 +4001,12 @@
         <v>17</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B208" s="15">
         <v>1</v>
@@ -4021,10 +4021,10 @@
         <v>15</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>27</v>
       </c>
@@ -4041,18 +4041,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>9</v>
       </c>
@@ -4100,12 +4100,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>11</v>
       </c>
@@ -4128,9 +4128,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B220" s="15">
         <v>1</v>
@@ -4148,9 +4148,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B221" s="15">
         <v>7.0000000000000007E-2</v>
@@ -4165,10 +4165,10 @@
         <v>17</v>
       </c>
       <c r="G221" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>26</v>
       </c>
@@ -4185,12 +4185,12 @@
         <v>17</v>
       </c>
       <c r="G222" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B223" s="17">
         <v>1.9300000000000002E-9</v>
@@ -4205,15 +4205,15 @@
         <v>17</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>2</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>7</v>
       </c>
@@ -4261,15 +4261,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -4277,12 +4277,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>38</v>
       </c>
@@ -4325,15 +4325,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B236" s="3">
         <v>345000</v>
       </c>
       <c r="C236" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D236" t="s">
         <v>22</v>
@@ -4342,10 +4342,10 @@
         <v>17</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>29</v>
       </c>
@@ -4365,9 +4365,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B238" s="3">
         <v>7200000</v>
@@ -4382,18 +4382,18 @@
         <v>17</v>
       </c>
       <c r="G238" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B239" s="3">
         <v>-828000000</v>
       </c>
       <c r="C239" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D239" t="s">
         <v>6</v>
@@ -4402,47 +4402,47 @@
         <v>17</v>
       </c>
       <c r="G239" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B240" s="3">
         <v>-14400000</v>
       </c>
       <c r="C240" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>17</v>
+      </c>
+      <c r="G240" t="s">
         <v>63</v>
       </c>
-      <c r="D240" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" t="s">
-        <v>17</v>
-      </c>
-      <c r="G240" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B241" s="3">
         <v>1120000</v>
       </c>
       <c r="D241" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E241" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F241" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -4490,12 +4490,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>27</v>
       </c>
@@ -4558,15 +4558,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>1</v>
       </c>
@@ -4574,15 +4574,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>7</v>
       </c>
@@ -4606,15 +4606,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -4622,12 +4622,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -4650,9 +4650,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4667,12 +4667,12 @@
         <v>15</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B265">
         <v>0.56999999999999995</v>
@@ -4687,18 +4687,18 @@
         <v>17</v>
       </c>
       <c r="G265" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B266">
         <v>0.11</v>
       </c>
       <c r="C266" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D266" t="s">
         <v>6</v>
@@ -4707,12 +4707,12 @@
         <v>17</v>
       </c>
       <c r="G266" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B267">
         <v>0.31</v>
@@ -4727,18 +4727,18 @@
         <v>17</v>
       </c>
       <c r="G267" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
@@ -4746,15 +4746,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>7</v>
       </c>
@@ -4778,15 +4778,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -4794,12 +4794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -4825,9 +4825,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -4842,12 +4842,12 @@
         <v>15</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B280" s="3">
         <f>4760/2</f>
@@ -4863,35 +4863,35 @@
         <v>17</v>
       </c>
       <c r="G280" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H280" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B281" s="3">
         <v>-9520</v>
       </c>
       <c r="C281" t="s">
+        <v>60</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" t="s">
+        <v>17</v>
+      </c>
+      <c r="G281" t="s">
         <v>63</v>
       </c>
-      <c r="D281" t="s">
-        <v>6</v>
-      </c>
-      <c r="F281" t="s">
-        <v>17</v>
-      </c>
-      <c r="G281" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B282" s="3">
         <f>4760/2</f>
@@ -4907,15 +4907,15 @@
         <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B283" s="3">
         <v>26700</v>
@@ -4930,15 +4930,15 @@
         <v>17</v>
       </c>
       <c r="G283" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H283" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B284" s="3">
         <v>6600</v>
@@ -4953,378 +4953,378 @@
         <v>17</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H284" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B314" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B360" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="395" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="441" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B452" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B478" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B498" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B543" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="578" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B585" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B589" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="606" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -833,18 +833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -852,10 +852,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -887,7 +887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -903,12 +903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>119</v>
       </c>
@@ -972,7 +972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>110</v>
       </c>
@@ -997,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>89</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>93</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>95</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>99</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>102</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
@@ -1271,12 +1271,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="22"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>120</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>111</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>89</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>93</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>95</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>97</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>99</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>102</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>106</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>126</v>
       </c>
@@ -1692,12 +1692,12 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="22"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
@@ -1745,12 +1745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>112</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>87</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>89</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>91</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>95</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>97</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>106</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>126</v>
       </c>
@@ -2113,12 +2113,12 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="22"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>5</v>
       </c>
@@ -2166,12 +2166,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>122</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>113</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>89</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>95</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>97</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>99</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>102</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>106</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>126</v>
       </c>
@@ -2534,12 +2534,12 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="22"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>35</v>
       </c>
@@ -2603,12 +2603,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>110</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>128</v>
       </c>
@@ -2729,8 +2729,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>35</v>
       </c>
@@ -2794,12 +2794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>11</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>114</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>118</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>128</v>
       </c>
@@ -2917,8 +2917,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>35</v>
       </c>
@@ -2982,12 +2982,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
         <v>111</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>118</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
         <v>38</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>128</v>
       </c>
@@ -3108,8 +3108,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>35</v>
       </c>
@@ -3173,12 +3173,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>115</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>118</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>38</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>126</v>
       </c>
@@ -3299,10 +3299,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>35</v>
       </c>
@@ -3366,12 +3366,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>11</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>118</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>126</v>
       </c>
@@ -3492,8 +3492,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>9</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>35</v>
       </c>
@@ -3557,12 +3557,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16" t="s">
         <v>116</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>118</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16" t="s">
         <v>38</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>128</v>
       </c>
@@ -3680,8 +3680,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>35</v>
       </c>
@@ -3745,12 +3745,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16" t="s">
         <v>113</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>118</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="16" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>128</v>
       </c>
@@ -3871,8 +3871,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>1</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>35</v>
       </c>
@@ -3936,12 +3936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>117</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="18" t="s">
         <v>109</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>118</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
         <v>27</v>
       </c>
@@ -4041,10 +4041,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>9</v>
       </c>
@@ -4100,12 +4100,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>117</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="18" t="s">
         <v>109</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
         <v>26</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16" t="s">
         <v>51</v>
       </c>
@@ -4208,12 +4208,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>2</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>9</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -4277,12 +4277,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>38</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>54</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>29</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>62</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>64</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -4490,12 +4490,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>0</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>2</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>9</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -4622,12 +4622,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>67</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>69</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>71</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>74</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -4794,12 +4794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>51</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>79</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>81</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>67</v>
       </c>
@@ -4959,372 +4959,372 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B294" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B314" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B340" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B360" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B386" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B406" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B432" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B452" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B478" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B494" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B498" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B523" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B543" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B569" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B585" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B589" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
@@ -833,18 +833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -852,10 +852,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -887,7 +887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -903,12 +903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>119</v>
       </c>
@@ -972,7 +972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>110</v>
       </c>
@@ -997,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>89</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>93</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>95</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>99</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>102</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
@@ -1271,12 +1271,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="22"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>120</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>111</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>89</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>93</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>95</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>97</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>99</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>102</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>106</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>126</v>
       </c>
@@ -1692,12 +1692,12 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="22"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
@@ -1745,12 +1745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>112</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>87</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>89</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>91</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>95</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>97</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>106</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>126</v>
       </c>
@@ -2113,12 +2113,12 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="22"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>5</v>
       </c>
@@ -2166,12 +2166,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>122</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>113</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>89</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>95</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>97</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>99</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>102</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>106</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>126</v>
       </c>
@@ -2534,12 +2534,12 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="22"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>35</v>
       </c>
@@ -2603,12 +2603,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>110</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>128</v>
       </c>
@@ -2729,8 +2729,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>35</v>
       </c>
@@ -2794,12 +2794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>11</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>114</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>118</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>128</v>
       </c>
@@ -2917,8 +2917,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>35</v>
       </c>
@@ -2982,12 +2982,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>111</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>118</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>38</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>128</v>
       </c>
@@ -3108,8 +3108,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>35</v>
       </c>
@@ -3173,12 +3173,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>115</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>118</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>38</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>126</v>
       </c>
@@ -3299,10 +3299,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>35</v>
       </c>
@@ -3366,12 +3366,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>11</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>118</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>126</v>
       </c>
@@ -3492,8 +3492,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>9</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>35</v>
       </c>
@@ -3557,12 +3557,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>116</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>118</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>38</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>128</v>
       </c>
@@ -3680,8 +3680,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>35</v>
       </c>
@@ -3745,12 +3745,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>113</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>118</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>38</v>
       </c>
@@ -3851,12 +3851,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B194" s="15">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>6</v>
@@ -3871,8 +3871,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>1</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>35</v>
       </c>
@@ -3936,12 +3936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>117</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>109</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>118</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>27</v>
       </c>
@@ -4041,10 +4041,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>9</v>
       </c>
@@ -4100,12 +4100,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>117</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>109</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>26</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>51</v>
       </c>
@@ -4208,12 +4208,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>2</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>9</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -4277,12 +4277,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>38</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>54</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>29</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>62</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>64</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -4490,12 +4490,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>0</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>2</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>9</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -4622,12 +4622,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>67</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>69</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>71</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>74</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -4794,12 +4794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>51</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>79</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>81</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>67</v>
       </c>
@@ -4959,372 +4959,372 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B314" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B360" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="395" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="441" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B452" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B478" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B498" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B543" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="578" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B585" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B589" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="606" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BDCCF3-C51E-094F-99EC-E4519699B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="129">
   <si>
     <t>Activity</t>
   </si>
@@ -412,7 +425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -830,21 +843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -852,10 +865,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -863,7 +876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -871,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -879,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -887,7 +900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -895,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -903,12 +916,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -943,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>119</v>
       </c>
@@ -972,7 +985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>110</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
@@ -1047,7 +1060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>89</v>
       </c>
@@ -1072,7 +1085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>93</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>95</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>99</v>
       </c>
@@ -1197,7 +1210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>102</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
@@ -1247,7 +1260,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
@@ -1271,12 +1284,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="22"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1324,12 +1337,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>120</v>
       </c>
@@ -1393,7 +1406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>111</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>89</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>93</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>95</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>97</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>99</v>
       </c>
@@ -1618,7 +1631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>102</v>
       </c>
@@ -1643,7 +1656,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>106</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>126</v>
       </c>
@@ -1692,12 +1705,12 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="22"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
@@ -1745,12 +1758,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>112</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>87</v>
       </c>
@@ -1889,7 +1902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>89</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>91</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>95</v>
       </c>
@@ -1989,7 +2002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>97</v>
       </c>
@@ -2014,7 +2027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>106</v>
       </c>
@@ -2089,7 +2102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>126</v>
       </c>
@@ -2113,12 +2126,12 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="22"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2139,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>5</v>
       </c>
@@ -2166,12 +2179,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>122</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>113</v>
       </c>
@@ -2260,7 +2273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>89</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -2385,7 +2398,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>95</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>97</v>
       </c>
@@ -2435,7 +2448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>99</v>
       </c>
@@ -2460,7 +2473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>102</v>
       </c>
@@ -2485,7 +2498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
         <v>106</v>
       </c>
@@ -2510,7 +2523,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>126</v>
       </c>
@@ -2534,12 +2547,12 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
       <c r="B90" s="22"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
@@ -2595,7 +2608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>35</v>
       </c>
@@ -2603,12 +2616,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
         <v>110</v>
       </c>
@@ -2663,7 +2676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>128</v>
       </c>
@@ -2729,8 +2742,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
@@ -2786,7 +2799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>35</v>
       </c>
@@ -2794,12 +2807,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>11</v>
       </c>
@@ -2828,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
         <v>114</v>
       </c>
@@ -2851,7 +2864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>118</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>128</v>
       </c>
@@ -2917,8 +2930,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>35</v>
       </c>
@@ -2982,12 +2995,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
         <v>111</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>118</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
         <v>38</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>128</v>
       </c>
@@ -3108,8 +3121,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
         <v>35</v>
       </c>
@@ -3173,12 +3186,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
         <v>115</v>
       </c>
@@ -3233,7 +3246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
         <v>118</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>38</v>
       </c>
@@ -3279,7 +3292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>126</v>
       </c>
@@ -3299,10 +3312,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>35</v>
       </c>
@@ -3366,12 +3379,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
         <v>11</v>
       </c>
@@ -3400,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
         <v>118</v>
       </c>
@@ -3449,7 +3462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>126</v>
       </c>
@@ -3492,8 +3505,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
         <v>9</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
         <v>35</v>
       </c>
@@ -3557,12 +3570,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
         <v>116</v>
       </c>
@@ -3614,7 +3627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>118</v>
       </c>
@@ -3637,7 +3650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
         <v>38</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>128</v>
       </c>
@@ -3680,8 +3693,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3702,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>35</v>
       </c>
@@ -3745,12 +3758,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16" t="s">
         <v>113</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
         <v>118</v>
       </c>
@@ -3828,7 +3841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
         <v>128</v>
       </c>
@@ -3871,8 +3884,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
         <v>1</v>
       </c>
@@ -3888,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
         <v>35</v>
       </c>
@@ -3936,12 +3949,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
         <v>117</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
         <v>109</v>
       </c>
@@ -4004,7 +4017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
         <v>118</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
         <v>27</v>
       </c>
@@ -4040,11 +4053,14 @@
       <c r="F209" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
         <v>9</v>
       </c>
@@ -4100,12 +4116,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
         <v>117</v>
       </c>
@@ -4148,7 +4164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="18" t="s">
         <v>109</v>
       </c>
@@ -4168,7 +4184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="18" t="s">
         <v>26</v>
       </c>
@@ -4188,7 +4204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
         <v>51</v>
       </c>
@@ -4208,12 +4224,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>2</v>
       </c>
@@ -4237,7 +4253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>9</v>
       </c>
@@ -4269,7 +4285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -4277,12 +4293,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>38</v>
       </c>
@@ -4325,7 +4341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>54</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>29</v>
       </c>
@@ -4365,7 +4381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4385,7 +4401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>62</v>
       </c>
@@ -4425,7 +4441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>64</v>
       </c>
@@ -4442,7 +4458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -4490,12 +4506,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>0</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>2</v>
       </c>
@@ -4582,7 +4598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>9</v>
       </c>
@@ -4614,7 +4630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -4622,12 +4638,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>67</v>
       </c>
@@ -4670,7 +4686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>69</v>
       </c>
@@ -4690,7 +4706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
         <v>71</v>
       </c>
@@ -4710,7 +4726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
         <v>74</v>
       </c>
@@ -4730,7 +4746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
@@ -4746,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
@@ -4754,7 +4770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -4794,12 +4810,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>51</v>
       </c>
@@ -4845,7 +4861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +4885,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
         <v>79</v>
       </c>
@@ -4913,7 +4929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>81</v>
       </c>
@@ -4936,7 +4952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>67</v>
       </c>
@@ -4959,372 +4975,372 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B294" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B314" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B340" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B360" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B386" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B406" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B432" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B452" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B478" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B494" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B498" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B523" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B543" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B569" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B585" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B589" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BDCCF3-C51E-094F-99EC-E4519699B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="129">
   <si>
     <t>Activity</t>
   </si>
@@ -425,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -843,21 +830,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -865,10 +852,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -876,7 +863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -884,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -892,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -900,7 +887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -908,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -916,12 +903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -956,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>119</v>
       </c>
@@ -985,7 +972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>110</v>
       </c>
@@ -1010,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
@@ -1060,7 +1047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>89</v>
       </c>
@@ -1085,7 +1072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
@@ -1110,7 +1097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>93</v>
       </c>
@@ -1135,7 +1122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>95</v>
       </c>
@@ -1160,7 +1147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>97</v>
       </c>
@@ -1185,7 +1172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>99</v>
       </c>
@@ -1210,7 +1197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>102</v>
       </c>
@@ -1235,7 +1222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
@@ -1260,7 +1247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
@@ -1284,12 +1271,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="22"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1337,12 +1324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>120</v>
       </c>
@@ -1406,7 +1393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>111</v>
       </c>
@@ -1431,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>89</v>
       </c>
@@ -1506,7 +1493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
@@ -1531,7 +1518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>93</v>
       </c>
@@ -1556,7 +1543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>95</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>97</v>
       </c>
@@ -1606,7 +1593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>99</v>
       </c>
@@ -1631,7 +1618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>102</v>
       </c>
@@ -1656,7 +1643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>106</v>
       </c>
@@ -1681,7 +1668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>126</v>
       </c>
@@ -1705,12 +1692,12 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="22"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -1734,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
@@ -1758,12 +1745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
@@ -1827,7 +1814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>112</v>
       </c>
@@ -1852,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>87</v>
       </c>
@@ -1902,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>89</v>
       </c>
@@ -1927,7 +1914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>91</v>
       </c>
@@ -1952,7 +1939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>93</v>
       </c>
@@ -1977,7 +1964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>95</v>
       </c>
@@ -2002,7 +1989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>97</v>
       </c>
@@ -2027,7 +2014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>99</v>
       </c>
@@ -2052,7 +2039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
@@ -2077,7 +2064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>106</v>
       </c>
@@ -2102,7 +2089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>126</v>
       </c>
@@ -2126,12 +2113,12 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="22"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>2</v>
       </c>
@@ -2163,7 +2150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>5</v>
       </c>
@@ -2179,12 +2166,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>122</v>
       </c>
@@ -2248,7 +2235,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>113</v>
       </c>
@@ -2273,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>87</v>
       </c>
@@ -2323,7 +2310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>89</v>
       </c>
@@ -2348,7 +2335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>91</v>
       </c>
@@ -2373,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -2398,7 +2385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>95</v>
       </c>
@@ -2423,7 +2410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>97</v>
       </c>
@@ -2448,7 +2435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>99</v>
       </c>
@@ -2473,7 +2460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>102</v>
       </c>
@@ -2498,7 +2485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>106</v>
       </c>
@@ -2523,7 +2510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>126</v>
       </c>
@@ -2547,12 +2534,12 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="22"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
@@ -2608,7 +2595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>35</v>
       </c>
@@ -2616,12 +2603,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>110</v>
       </c>
@@ -2676,7 +2663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>118</v>
       </c>
@@ -2699,7 +2686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>38</v>
       </c>
@@ -2722,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>128</v>
       </c>
@@ -2742,8 +2729,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>35</v>
       </c>
@@ -2807,12 +2794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>11</v>
       </c>
@@ -2841,7 +2828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>114</v>
       </c>
@@ -2864,7 +2851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>118</v>
       </c>
@@ -2887,7 +2874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>128</v>
       </c>
@@ -2930,8 +2917,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2926,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>2</v>
       </c>
@@ -2955,7 +2942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
@@ -2963,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>5</v>
       </c>
@@ -2971,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>9</v>
       </c>
@@ -2987,7 +2974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>35</v>
       </c>
@@ -2995,12 +2982,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>111</v>
       </c>
@@ -3055,7 +3042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>118</v>
       </c>
@@ -3078,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>38</v>
       </c>
@@ -3101,7 +3088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>128</v>
       </c>
@@ -3121,8 +3108,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3117,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>3</v>
       </c>
@@ -3154,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>7</v>
       </c>
@@ -3170,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>9</v>
       </c>
@@ -3178,7 +3165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>35</v>
       </c>
@@ -3186,12 +3173,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>115</v>
       </c>
@@ -3246,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>118</v>
       </c>
@@ -3269,7 +3256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>38</v>
       </c>
@@ -3292,7 +3279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>126</v>
       </c>
@@ -3312,10 +3299,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>2</v>
       </c>
@@ -3339,7 +3326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>9</v>
       </c>
@@ -3371,7 +3358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>35</v>
       </c>
@@ -3379,12 +3366,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +3400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>112</v>
       </c>
@@ -3439,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>118</v>
       </c>
@@ -3462,7 +3449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>126</v>
       </c>
@@ -3505,8 +3492,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>1</v>
       </c>
@@ -3522,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>2</v>
       </c>
@@ -3530,7 +3517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>3</v>
       </c>
@@ -3538,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>5</v>
       </c>
@@ -3546,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>7</v>
       </c>
@@ -3554,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>35</v>
       </c>
@@ -3570,12 +3557,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>11</v>
       </c>
@@ -3604,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>116</v>
       </c>
@@ -3627,7 +3614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>118</v>
       </c>
@@ -3650,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>38</v>
       </c>
@@ -3673,7 +3660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>128</v>
       </c>
@@ -3693,8 +3680,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>7</v>
       </c>
@@ -3742,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>35</v>
       </c>
@@ -3758,12 +3745,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>11</v>
       </c>
@@ -3792,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>113</v>
       </c>
@@ -3818,7 +3805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>118</v>
       </c>
@@ -3841,7 +3828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>38</v>
       </c>
@@ -3864,7 +3851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>128</v>
       </c>
@@ -3884,8 +3871,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
@@ -3909,7 +3896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
@@ -3941,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>35</v>
       </c>
@@ -3949,12 +3936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>11</v>
       </c>
@@ -3977,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>117</v>
       </c>
@@ -3997,7 +3984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>109</v>
       </c>
@@ -4017,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>118</v>
       </c>
@@ -4037,7 +4024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>27</v>
       </c>
@@ -4053,14 +4040,11 @@
       <c r="F209" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G209" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>1</v>
       </c>
@@ -4076,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>3</v>
       </c>
@@ -4092,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>5</v>
       </c>
@@ -4100,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>9</v>
       </c>
@@ -4116,12 +4100,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>11</v>
       </c>
@@ -4144,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>117</v>
       </c>
@@ -4164,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>109</v>
       </c>
@@ -4184,7 +4168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>26</v>
       </c>
@@ -4204,7 +4188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>51</v>
       </c>
@@ -4224,12 +4208,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>1</v>
       </c>
@@ -4245,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>2</v>
       </c>
@@ -4253,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +4261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -4293,12 +4277,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>38</v>
       </c>
@@ -4341,7 +4325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>54</v>
       </c>
@@ -4361,7 +4345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>29</v>
       </c>
@@ -4381,7 +4365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4401,7 +4385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -4421,7 +4405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>62</v>
       </c>
@@ -4441,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>64</v>
       </c>
@@ -4458,7 +4442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>2</v>
       </c>
@@ -4482,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>3</v>
       </c>
@@ -4490,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>5</v>
       </c>
@@ -4498,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>7</v>
       </c>
@@ -4506,12 +4490,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>11</v>
       </c>
@@ -4534,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>29</v>
       </c>
@@ -4554,7 +4538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>27</v>
       </c>
@@ -4574,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>2</v>
       </c>
@@ -4598,7 +4582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>3</v>
       </c>
@@ -4606,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>9</v>
       </c>
@@ -4630,7 +4614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -4638,12 +4622,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>67</v>
       </c>
@@ -4686,7 +4670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>69</v>
       </c>
@@ -4706,7 +4690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>71</v>
       </c>
@@ -4726,7 +4710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>74</v>
       </c>
@@ -4746,7 +4730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +4738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
@@ -4762,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
@@ -4770,7 +4754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
@@ -4778,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>7</v>
       </c>
@@ -4794,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -4810,12 +4794,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>11</v>
       </c>
@@ -4841,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>51</v>
       </c>
@@ -4861,7 +4845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>77</v>
       </c>
@@ -4885,7 +4869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>62</v>
       </c>
@@ -4905,7 +4889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>79</v>
       </c>
@@ -4929,7 +4913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>81</v>
       </c>
@@ -4952,7 +4936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>67</v>
       </c>
@@ -4975,372 +4959,372 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B314" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B360" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="441" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B452" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B478" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B498" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B543" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="578" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B585" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B589" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="606" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129DC3D-85F1-824F-96CF-BB1299FE1C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991B787-451E-4440-BF85-04270676C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
+    <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
+    <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$617</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FT fuel - Diesel'!$A$1:$K$638</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="154">
   <si>
     <t>Activity</t>
   </si>
@@ -424,16 +425,94 @@
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>Energy-based allocation</t>
+  </si>
+  <si>
+    <t>LHV [MJ/kg]</t>
+  </si>
+  <si>
+    <t>Energy produced [GJ]</t>
+  </si>
+  <si>
+    <t>Energy produced [%]</t>
+  </si>
+  <si>
+    <t>Mass [kg]</t>
+  </si>
+  <si>
+    <t>Mass syngas, allocated [kg]</t>
+  </si>
+  <si>
+    <t>Mass syngas, allocated [kg/kg]</t>
+  </si>
+  <si>
+    <t>Embedded CO2 from syngas [kg/kg]</t>
+  </si>
+  <si>
+    <t>CO2 content [kg/kg]</t>
+  </si>
+  <si>
+    <t>Carbon correction [kg/kg]</t>
+  </si>
+  <si>
+    <t>Syngas</t>
+  </si>
+  <si>
+    <t>Naphtha</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Lubricating oil</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Economic allocation</t>
+  </si>
+  <si>
+    <t>Unitary price [Euro_2005/kg]</t>
+  </si>
+  <si>
+    <t>Turnover [Euro_2005]</t>
+  </si>
+  <si>
+    <t>Revenue produced [%]</t>
+  </si>
+  <si>
+    <t>Heat, waste</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ecoinvent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +556,15 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -507,10 +599,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,9 +620,20 @@
     <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -839,11 +944,624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36521810-1828-BD4D-A97E-7E3B0102C0F6}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15">
+        <v>23.94</v>
+      </c>
+      <c r="D6" s="16">
+        <v>980752</v>
+      </c>
+      <c r="E6" s="15">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <f>D6*1000/C6</f>
+        <v>40967084.377610691</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17">
+        <f>0.875*1.57</f>
+        <v>1.37375</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>190189</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8/SUM($D$8:$D$11)</f>
+        <v>0.24240218913817341</v>
+      </c>
+      <c r="F8" s="16">
+        <f>D8*1000/C8</f>
+        <v>4273910.1123595508</v>
+      </c>
+      <c r="G8" s="16">
+        <f>E8*$F$6</f>
+        <v>9930510.9357410949</v>
+      </c>
+      <c r="H8" s="17">
+        <f>G8/F8</f>
+        <v>2.3235189029884942</v>
+      </c>
+      <c r="I8" s="17">
+        <f>$I$6*H8</f>
+        <v>3.1919340929804441</v>
+      </c>
+      <c r="J8" s="17">
+        <f>0.9197*(44/12)</f>
+        <v>3.372233333333333</v>
+      </c>
+      <c r="K8" s="17">
+        <f>J8-I8</f>
+        <v>0.18029924035288891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15">
+        <v>45</v>
+      </c>
+      <c r="D9" s="16">
+        <v>143100</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" ref="E9:E11" si="0">D9/SUM($D$8:$D$11)</f>
+        <v>0.18238569667894891</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" ref="F9:F11" si="1">D9*1000/C9</f>
+        <v>3180000</v>
+      </c>
+      <c r="G9" s="16">
+        <f>E9*$F$6</f>
+        <v>7471810.2251158096</v>
+      </c>
+      <c r="H9" s="17">
+        <f>G9/F9</f>
+        <v>2.3496258569546571</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:I11" si="2">$I$6*H9</f>
+        <v>3.2277985209914601</v>
+      </c>
+      <c r="J9" s="17">
+        <v>3.14</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" ref="K9:K11" si="3">J9-I9</f>
+        <v>-8.7798520991460016E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
+        <v>43.3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>286404</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.36503139812465191</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
+        <v>6614411.0854503466</v>
+      </c>
+      <c r="G10" s="16">
+        <f>E10*$F$6</f>
+        <v>14954272.087449815</v>
+      </c>
+      <c r="H10" s="17">
+        <f>G10/F10</f>
+        <v>2.2608622134697036</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="2"/>
+        <v>3.1058594657540053</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3.16</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>5.4140534245994854E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D11" s="16">
+        <v>164908</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.21018071605822577</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>4102189.0547263678</v>
+      </c>
+      <c r="G11" s="16">
+        <f>E11*$F$6</f>
+        <v>8610491.1293039694</v>
+      </c>
+      <c r="H11" s="17">
+        <f>G11/F11</f>
+        <v>2.098999098879494</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8835000120857051</v>
+      </c>
+      <c r="J11" s="17">
+        <f>0.75*(44/12)</f>
+        <v>2.75</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.13350001208570506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <f>D6-SUM(D8:D11)</f>
+        <v>196151</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>23.94</v>
+      </c>
+      <c r="D17" s="19">
+        <v>980752</v>
+      </c>
+      <c r="E17" s="19">
+        <f>D17*1000/C17</f>
+        <v>40967084.377610691</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>190189</v>
+      </c>
+      <c r="E19" s="19">
+        <f>D19*1000/C19</f>
+        <v>4273910.1123595508</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G19" s="20">
+        <f>F19*E19</f>
+        <v>1132586.1797752811</v>
+      </c>
+      <c r="H19" s="21">
+        <f>G19/SUM($G$19:$G$22)</f>
+        <v>6.7814648037968772E-2</v>
+      </c>
+      <c r="I19" s="22">
+        <f>H19*$E$17</f>
+        <v>2778168.408209438</v>
+      </c>
+      <c r="J19" s="23">
+        <f>I19/E19</f>
+        <v>0.65002967661284294</v>
+      </c>
+      <c r="K19" s="23">
+        <f>$K$17*J19</f>
+        <v>0.89054065695959495</v>
+      </c>
+      <c r="L19" s="23">
+        <f>0.9197*(44/12)</f>
+        <v>3.372233333333333</v>
+      </c>
+      <c r="M19" s="23">
+        <f>L19-K19</f>
+        <v>2.4816926763737381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>45</v>
+      </c>
+      <c r="D20" s="19">
+        <v>143100</v>
+      </c>
+      <c r="E20" s="19">
+        <f>D20*1000/C20</f>
+        <v>3180000</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G20" s="20">
+        <f>F20*E20</f>
+        <v>944460</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" ref="H20:H22" si="4">G20/SUM($G$19:$G$22)</f>
+        <v>5.6550418528546698E-2</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" ref="I20:I22" si="5">H20*$E$17</f>
+        <v>2316705.7674481715</v>
+      </c>
+      <c r="J20" s="23">
+        <f>I20/E20</f>
+        <v>0.72852382624156342</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" ref="K20:K22" si="6">$K$17*J20</f>
+        <v>0.99807764195094195</v>
+      </c>
+      <c r="L20" s="23">
+        <v>3.14</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" ref="M20:M22" si="7">L20-K20</f>
+        <v>2.1419223580490581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
+        <v>43.3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>286404</v>
+      </c>
+      <c r="E21" s="19">
+        <f>D21*1000/C21</f>
+        <v>6614411.0854503466</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="20">
+        <f>F21*E21</f>
+        <v>2645764.4341801386</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="4"/>
+        <v>0.15841759956041587</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="5"/>
+        <v>6489907.1680900995</v>
+      </c>
+      <c r="J21" s="23">
+        <f>I21/E21</f>
+        <v>0.98117687035900791</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="6"/>
+        <v>1.344212312391841</v>
+      </c>
+      <c r="L21" s="23">
+        <v>3.16</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="7"/>
+        <v>1.8157876876081591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D22" s="19">
+        <v>164908</v>
+      </c>
+      <c r="E22" s="19">
+        <f>D22*1000/C22</f>
+        <v>4102189.0547263678</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2.92</v>
+      </c>
+      <c r="G22" s="20">
+        <f>F22*E22</f>
+        <v>11978392.039800994</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="4"/>
+        <v>0.71721733387306863</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="5"/>
+        <v>29382303.033862982</v>
+      </c>
+      <c r="J22" s="23">
+        <f>I22/E22</f>
+        <v>7.1625911536207578</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="6"/>
+        <v>9.8127498804604389</v>
+      </c>
+      <c r="L22" s="23">
+        <f>0.75*(44/12)</f>
+        <v>2.75</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="7"/>
+        <v>-7.0627498804604389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="19">
+        <f>D17-SUM(D19:D22)</f>
+        <v>196151</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K617"/>
+  <dimension ref="A1:K638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2441,39 +3159,38 @@
     </row>
     <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="B103" s="9">
+        <f>3.64160231884058*0.06</f>
+        <v>0.21849613913043478</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9">
-        <v>2</v>
+        <f>0.00107549913043478*0.06</f>
+        <v>6.45299478260868E-5</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>20</v>
@@ -2482,909 +3199,1051 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>113</v>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B107" s="10">
+        <f>0.0872420618556701*0.06</f>
+        <v>5.234523711340206E-3</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" s="9">
-        <v>1</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B118" s="10">
-        <v>6.7000000000000001E-12</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E118" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F118" s="9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B119" s="9">
-        <v>2.48</v>
+        <v>1</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="F119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="9">
+        <f>3.64160231884058*0.07</f>
+        <v>0.25491216231884062</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H121" s="9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="B122" s="9">
-        <v>1</v>
+        <f>0.00107549913043478*0.07</f>
+        <v>7.5284939130434612E-5</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B123" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="B124" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="B125" s="10">
+        <f>0.0872420618556701*0.07</f>
+        <v>6.106944329896908E-3</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B131" s="9">
-        <v>1</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B132" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B133" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B134" s="9">
-        <v>1.82</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
       </c>
+      <c r="C137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>34</v>
+        <v>117</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="B139" s="9">
+        <f>3.64160231884058*0.16</f>
+        <v>0.58265637101449286</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="B140" s="9">
+        <f>0.00107549913043478*0.16</f>
+        <v>1.7207986086956482E-4</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B141" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>45</v>
+        <v>127</v>
+      </c>
+      <c r="B142" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B143" s="10">
+        <f>0.0872420618556701*0.16</f>
+        <v>1.3958729896907216E-2</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="B146" s="9">
         <v>1</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B147" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B148" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B149" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="10"/>
-    </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>111</v>
+      <c r="A150" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>4</v>
+      <c r="G154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="B155" s="9">
+        <v>1</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>8</v>
+        <v>117</v>
+      </c>
+      <c r="B156" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>46</v>
+        <v>150</v>
+      </c>
+      <c r="B157" s="9">
+        <f>3.64160231884058*0.21</f>
+        <v>0.76473648695652174</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
-        <v>10</v>
+        <v>151</v>
+      </c>
+      <c r="B158" s="9">
+        <f>0.00107549913043478*0.21</f>
+        <v>2.2585481739130381E-4</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="B160" s="9">
+        <v>0.13</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="10">
+        <f>0.0872420618556701*0.21</f>
+        <v>1.832083298969072E-2</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="10"/>
+    </row>
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B161" s="9">
-        <v>1</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B162" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H163" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="B164" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="B175" s="9">
+        <f>3.64160231884058*0.18</f>
+        <v>0.65548841739130437</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I175" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B176" s="9">
-        <v>1</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>8</v>
+        <f>0.00107549913043478*0.18</f>
+        <v>1.9358984347826041E-4</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" s="9" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B177" s="9">
-        <v>2.3199999999999998</v>
+        <v>38</v>
+      </c>
+      <c r="B177" s="10">
+        <v>6.7000000000000001E-12</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>37</v>
@@ -3392,45 +4251,46 @@
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B178" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>28</v>
+        <v>125</v>
+      </c>
+      <c r="B178" s="9">
+        <v>0.22</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B179" s="9">
-        <v>0.19</v>
+        <v>23</v>
+      </c>
+      <c r="B179" s="10">
+        <f>0.0872420618556701*0.18</f>
+        <v>1.5703571134020617E-2</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3439,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3455,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3487,7 +4347,7 @@
         <v>9</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3534,7 +4394,7 @@
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B191" s="9">
         <v>1</v>
@@ -3549,13 +4409,10 @@
         <v>15</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="I191" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3563,7 +4420,7 @@
         <v>117</v>
       </c>
       <c r="B192" s="9">
-        <v>2.2599999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>8</v>
@@ -3581,41 +4438,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B193" s="10">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="B193" s="9">
+        <f>3.64160231884058*0.24</f>
+        <v>0.87398455652173912</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B194" s="9">
-        <v>0.05</v>
+        <f>0.00107549913043478*0.24</f>
+        <v>2.581197913043472E-4</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>20</v>
@@ -3624,1413 +4480,1737 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B196" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="10">
+        <f>0.0872420618556701*0.24</f>
+        <v>2.0938094845360824E-2</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B199" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B209" s="9">
+        <v>1</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
+      <c r="B210" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H210" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B211" s="9">
+        <f>3.64160231884058*0.37</f>
+        <v>1.3473928579710146</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B212" s="9">
+        <f>0.00107549913043478*0.37</f>
+        <v>3.9793467826086865E-4</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213" s="10">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B214" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="10">
+        <f>0.0872420618556701*0.37</f>
+        <v>3.2279562886597939E-2</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B218" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="9" t="s">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B219" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
+      <c r="B221" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
+      <c r="B222" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B223" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B226" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C226" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D226" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E226" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F205" s="9" t="s">
+      <c r="F226" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G205" s="9" t="s">
+      <c r="G226" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="9" t="s">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B227" s="9">
         <v>0.875</v>
       </c>
-      <c r="C206" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" s="9" t="s">
+      <c r="C227" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G227" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="11" t="s">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B228" s="9">
         <v>0.125</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" s="11" t="s">
+      <c r="C228" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G228" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B229" s="9">
         <v>1</v>
       </c>
-      <c r="C208" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F208" s="9" t="s">
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G208" s="9" t="s">
+      <c r="G229" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B209" s="12">
+      <c r="B230" s="12">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C230" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="12"/>
-    </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="F230" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="12"/>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B232" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="9" t="s">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B233" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="9" t="s">
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B234" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="9" t="s">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B235" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="9" t="s">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="9" t="s">
+      <c r="B236" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
+      <c r="B237" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B238" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="9" t="s">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B240" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E219" s="9" t="s">
+      <c r="E240" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F219" s="9" t="s">
+      <c r="F240" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G219" s="9" t="s">
+      <c r="G240" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="9" t="s">
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B241" s="9">
         <v>1</v>
       </c>
-      <c r="C220" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" s="9" t="s">
+      <c r="C241" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G220" s="9" t="s">
+      <c r="G241" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="11" t="s">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B242" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C221" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" s="11" t="s">
+      <c r="C242" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G242" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="11" t="s">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B243" s="9">
         <v>1.57</v>
       </c>
-      <c r="C222" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G222" s="11" t="s">
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G243" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
+    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B244" s="10">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C223" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="9" t="s">
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F223" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G223" s="9" t="s">
+      <c r="F244" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G244" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="10"/>
-    </row>
-    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="10"/>
+    </row>
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>2</v>
-      </c>
-      <c r="B227" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>9</v>
-      </c>
-      <c r="B231" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>35</v>
-      </c>
-      <c r="B232" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>38</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>53</v>
-      </c>
-      <c r="B236" s="3">
-        <v>345000</v>
-      </c>
-      <c r="C236" t="s">
-        <v>54</v>
-      </c>
-      <c r="D236" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" t="s">
-        <v>17</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>29</v>
-      </c>
-      <c r="B237" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>6</v>
-      </c>
-      <c r="F237" t="s">
-        <v>17</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>56</v>
-      </c>
-      <c r="B238" s="3">
-        <v>7200000</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>6</v>
-      </c>
-      <c r="F238" t="s">
-        <v>17</v>
-      </c>
-      <c r="G238" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>58</v>
-      </c>
-      <c r="B239" s="3">
-        <v>-828000000</v>
-      </c>
-      <c r="C239" t="s">
-        <v>59</v>
-      </c>
-      <c r="D239" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" t="s">
-        <v>17</v>
-      </c>
-      <c r="G239" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>61</v>
-      </c>
-      <c r="B240" s="3">
-        <v>-14400000</v>
-      </c>
-      <c r="C240" t="s">
-        <v>59</v>
-      </c>
-      <c r="D240" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" t="s">
-        <v>17</v>
-      </c>
-      <c r="G240" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241" s="3">
-        <v>1120000</v>
-      </c>
-      <c r="D241" t="s">
-        <v>64</v>
-      </c>
-      <c r="E241" t="s">
-        <v>65</v>
-      </c>
-      <c r="F241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>1</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>2</v>
-      </c>
-      <c r="B245" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>3</v>
-      </c>
-      <c r="B246" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" t="s">
         <v>5</v>
-      </c>
-      <c r="E250" t="s">
-        <v>13</v>
-      </c>
-      <c r="F250" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>29</v>
-      </c>
-      <c r="B251">
-        <v>300</v>
-      </c>
-      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" t="s">
         <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>17</v>
-      </c>
-      <c r="G251" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>27</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>5</v>
-      </c>
-      <c r="F252" t="s">
-        <v>15</v>
-      </c>
-      <c r="G252" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>35</v>
+      </c>
+      <c r="B253" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>3</v>
-      </c>
-      <c r="B257" t="s">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="B257" s="3">
+        <v>345000</v>
+      </c>
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" t="s">
+        <v>17</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B258" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>17</v>
+      </c>
+      <c r="G258" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>7</v>
-      </c>
-      <c r="B259" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B259" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>17</v>
+      </c>
+      <c r="G259" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>9</v>
-      </c>
-      <c r="B260" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="B260" s="3">
+        <v>-828000000</v>
+      </c>
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
+        <v>17</v>
+      </c>
+      <c r="G260" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>35</v>
-      </c>
-      <c r="B261" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>11</v>
-      </c>
-      <c r="B263" t="s">
-        <v>12</v>
-      </c>
-      <c r="C263" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" t="s">
-        <v>5</v>
-      </c>
-      <c r="E263" t="s">
-        <v>13</v>
-      </c>
-      <c r="F263" t="s">
-        <v>3</v>
-      </c>
-      <c r="G263" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>66</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" t="s">
-        <v>6</v>
-      </c>
-      <c r="F264" t="s">
-        <v>15</v>
-      </c>
-      <c r="G264" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B261" s="3">
+        <v>-14400000</v>
+      </c>
+      <c r="C261" t="s">
+        <v>59</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>17</v>
+      </c>
+      <c r="G261" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>63</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" t="s">
+        <v>65</v>
+      </c>
+      <c r="F262" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B265">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
-      </c>
-      <c r="D265" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" t="s">
-        <v>17</v>
-      </c>
-      <c r="G265" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266">
-        <v>0.11</v>
-      </c>
-      <c r="C266" t="s">
-        <v>71</v>
-      </c>
-      <c r="D266" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>73</v>
-      </c>
-      <c r="B267">
-        <v>0.31</v>
-      </c>
-      <c r="C267" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
         <v>28</v>
       </c>
-      <c r="D267" t="s">
-        <v>6</v>
-      </c>
-      <c r="F267" t="s">
-        <v>17</v>
-      </c>
-      <c r="G267" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
+    </row>
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" t="s">
         <v>2</v>
-      </c>
-      <c r="B271" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272">
+        <v>300</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" t="s">
+        <v>17</v>
+      </c>
+      <c r="G272" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" t="s">
+        <v>15</v>
+      </c>
+      <c r="G273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>3</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B278" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>5</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>35</v>
+      </c>
+      <c r="B282" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s">
+        <v>3</v>
+      </c>
+      <c r="G284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>66</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>68</v>
+      </c>
+      <c r="B286">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>70</v>
+      </c>
+      <c r="B287">
+        <v>0.11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>71</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>73</v>
+      </c>
+      <c r="B288">
+        <v>0.31</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" t="s">
+        <v>17</v>
+      </c>
+      <c r="G288" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>7</v>
       </c>
-      <c r="B274" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>9</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B296" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>35</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B297" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>11</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B299" t="s">
         <v>12</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C299" t="s">
         <v>7</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D299" t="s">
         <v>5</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E299" t="s">
         <v>13</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F299" t="s">
         <v>3</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G299" t="s">
         <v>2</v>
       </c>
-      <c r="H278" t="s">
+      <c r="H299" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>50</v>
       </c>
-      <c r="B279">
+      <c r="B300">
         <v>1</v>
       </c>
-      <c r="C279" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" t="s">
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" t="s">
         <v>5</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F300" t="s">
         <v>15</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G300" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>76</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B301" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C301" t="s">
         <v>28</v>
       </c>
-      <c r="D280" t="s">
-        <v>6</v>
-      </c>
-      <c r="F280" t="s">
-        <v>17</v>
-      </c>
-      <c r="G280" t="s">
+      <c r="D301" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" t="s">
+        <v>17</v>
+      </c>
+      <c r="G301" t="s">
         <v>77</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H301" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>61</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B302" s="3">
         <v>-9520</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C302" t="s">
         <v>59</v>
       </c>
-      <c r="D281" t="s">
-        <v>6</v>
-      </c>
-      <c r="F281" t="s">
-        <v>17</v>
-      </c>
-      <c r="G281" t="s">
+      <c r="D302" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>78</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B303" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C303" t="s">
         <v>28</v>
       </c>
-      <c r="D282" t="s">
-        <v>6</v>
-      </c>
-      <c r="F282" t="s">
-        <v>17</v>
-      </c>
-      <c r="G282" t="s">
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>17</v>
+      </c>
+      <c r="G303" t="s">
         <v>79</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H303" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>80</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B304" s="3">
         <v>26700</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C304" t="s">
         <v>28</v>
       </c>
-      <c r="D283" t="s">
-        <v>6</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="D304" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" t="s">
+        <v>17</v>
+      </c>
+      <c r="G304" t="s">
         <v>81</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H304" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>66</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B305" s="3">
         <v>6600</v>
       </c>
-      <c r="C284" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" t="s">
-        <v>6</v>
-      </c>
-      <c r="F284" t="s">
-        <v>17</v>
-      </c>
-      <c r="G284" t="s">
+      <c r="C305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
         <v>66</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H305" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="3"/>
-    </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="1"/>
-      <c r="B296" s="2"/>
-    </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
-      <c r="G306" s="4"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B310" s="5"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B311" s="5"/>
-    </row>
-    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="1"/>
-      <c r="B312" s="2"/>
-    </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
-      <c r="G322" s="4"/>
-    </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
-      <c r="G323" s="4"/>
-    </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A326" s="1"/>
-      <c r="B326" s="2"/>
+    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B314" s="3"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B315" s="3"/>
+    </row>
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" s="2"/>
+    </row>
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="4"/>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B339" s="3"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B340" s="3"/>
-    </row>
-    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A342" s="1"/>
-      <c r="B342" s="2"/>
-    </row>
-    <row r="349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A352" s="4"/>
-      <c r="G352" s="4"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B356" s="5"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B357" s="5"/>
-    </row>
-    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A358" s="1"/>
-      <c r="B358" s="2"/>
-    </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A368" s="4"/>
-      <c r="G368" s="4"/>
-    </row>
-    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A369" s="4"/>
-      <c r="G369" s="4"/>
-    </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A372" s="1"/>
-      <c r="B372" s="2"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="4"/>
+      <c r="G343" s="4"/>
+    </row>
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="4"/>
+      <c r="G344" s="4"/>
+    </row>
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+      <c r="B347" s="2"/>
+    </row>
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B360" s="3"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B361" s="3"/>
+    </row>
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" s="2"/>
+    </row>
+    <row r="370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="4"/>
+      <c r="G373" s="4"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B378" s="5"/>
     </row>
     <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B385" s="3"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B386" s="3"/>
-    </row>
-    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A388" s="1"/>
-      <c r="B388" s="2"/>
-    </row>
-    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A398" s="4"/>
-      <c r="G398" s="4"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B402" s="5"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B403" s="5"/>
-    </row>
-    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A404" s="1"/>
-      <c r="B404" s="2"/>
-    </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A414" s="4"/>
-      <c r="G414" s="4"/>
-    </row>
-    <row r="415" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A415" s="4"/>
-      <c r="G415" s="4"/>
-    </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-      <c r="B418" s="2"/>
-    </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="386" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="4"/>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="4"/>
+      <c r="G390" s="4"/>
+    </row>
+    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+      <c r="B393" s="2"/>
+    </row>
+    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B406" s="3"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B407" s="3"/>
+    </row>
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+      <c r="B409" s="2"/>
+    </row>
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="419" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B423" s="5"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B431" s="3"/>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B432" s="3"/>
-    </row>
-    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A434" s="1"/>
-      <c r="B434" s="2"/>
-    </row>
-    <row r="441" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A444" s="4"/>
-      <c r="G444" s="4"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B448" s="5"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B449" s="5"/>
-    </row>
-    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A450" s="1"/>
-      <c r="B450" s="2"/>
-    </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="460" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A460" s="4"/>
-      <c r="G460" s="4"/>
-    </row>
-    <row r="461" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A461" s="4"/>
-      <c r="G461" s="4"/>
-    </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A464" s="1"/>
-      <c r="B464" s="2"/>
-    </row>
-    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="435" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="4"/>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="4"/>
+      <c r="G436" s="4"/>
+    </row>
+    <row r="439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+      <c r="B439" s="2"/>
+    </row>
+    <row r="446" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B453" s="3"/>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" s="2"/>
+    </row>
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="465" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A465" s="4"/>
+      <c r="G465" s="4"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B469" s="5"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B470" s="5"/>
+    </row>
+    <row r="471" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B477" s="3"/>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B478" s="3"/>
-    </row>
-    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A480" s="1"/>
-      <c r="B480" s="2"/>
-    </row>
-    <row r="487" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="490" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A490" s="4"/>
-      <c r="G490" s="4"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B494" s="5"/>
-    </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A496" s="1"/>
-      <c r="B496" s="2"/>
-    </row>
-    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="506" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A506" s="4"/>
-      <c r="G506" s="4"/>
-    </row>
-    <row r="507" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A507" s="4"/>
-      <c r="G507" s="4"/>
-    </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-      <c r="B509" s="2"/>
-    </row>
-    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A516" s="1"/>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B522" s="3"/>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B523" s="3"/>
-    </row>
-    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A525" s="1"/>
-      <c r="B525" s="2"/>
-    </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A532" s="1"/>
-    </row>
-    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A535" s="4"/>
-      <c r="G535" s="4"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B539" s="5"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B540" s="5"/>
-    </row>
-    <row r="541" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-      <c r="B541" s="2"/>
-    </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="551" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A551" s="4"/>
-      <c r="G551" s="4"/>
-    </row>
-    <row r="552" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A552" s="4"/>
-      <c r="G552" s="4"/>
-    </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-      <c r="B555" s="2"/>
-    </row>
-    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="478" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="481" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="4"/>
+      <c r="G481" s="4"/>
+    </row>
+    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="4"/>
+      <c r="G482" s="4"/>
+    </row>
+    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" s="2"/>
+    </row>
+    <row r="492" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B498" s="3"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B499" s="3"/>
+    </row>
+    <row r="501" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+    </row>
+    <row r="508" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="511" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="4"/>
+      <c r="G511" s="4"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B515" s="5"/>
+    </row>
+    <row r="517" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A517" s="1"/>
+      <c r="B517" s="2"/>
+    </row>
+    <row r="524" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="527" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="4"/>
+      <c r="G527" s="4"/>
+    </row>
+    <row r="528" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A528" s="4"/>
+      <c r="G528" s="4"/>
+    </row>
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+      <c r="B530" s="2"/>
+    </row>
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B543" s="3"/>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B544" s="3"/>
+    </row>
+    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+      <c r="B546" s="2"/>
+    </row>
+    <row r="553" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="556" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A556" s="4"/>
+      <c r="G556" s="4"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B560" s="5"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B561" s="5"/>
+    </row>
+    <row r="562" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B568" s="3"/>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B569" s="3"/>
-    </row>
-    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A571" s="1"/>
-      <c r="B571" s="2"/>
-    </row>
-    <row r="578" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="581" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A581" s="4"/>
-      <c r="G581" s="4"/>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B585" s="5"/>
-    </row>
-    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A587" s="1"/>
-      <c r="B587" s="2"/>
-    </row>
-    <row r="594" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="597" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A597" s="4"/>
-      <c r="G597" s="4"/>
-    </row>
-    <row r="598" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A598" s="4"/>
-      <c r="G598" s="4"/>
-    </row>
-    <row r="600" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A600" s="1"/>
-      <c r="B600" s="2"/>
-    </row>
-    <row r="606" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A611" s="1"/>
-      <c r="B611" s="2"/>
-    </row>
-    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A617" s="1"/>
+      <c r="B562" s="2"/>
+    </row>
+    <row r="569" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+    </row>
+    <row r="572" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A572" s="4"/>
+      <c r="G572" s="4"/>
+    </row>
+    <row r="573" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="4"/>
+      <c r="G573" s="4"/>
+    </row>
+    <row r="576" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+      <c r="B576" s="2"/>
+    </row>
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="1"/>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B589" s="3"/>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B590" s="3"/>
+    </row>
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="B592" s="2"/>
+    </row>
+    <row r="599" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="602" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A602" s="4"/>
+      <c r="G602" s="4"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B606" s="5"/>
+    </row>
+    <row r="608" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A608" s="1"/>
+      <c r="B608" s="2"/>
+    </row>
+    <row r="615" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A615" s="1"/>
+    </row>
+    <row r="618" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A618" s="4"/>
+      <c r="G618" s="4"/>
+    </row>
+    <row r="619" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A619" s="4"/>
+      <c r="G619" s="4"/>
+    </row>
+    <row r="621" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A621" s="1"/>
+      <c r="B621" s="2"/>
+    </row>
+    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A627" s="1"/>
+    </row>
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+      <c r="B632" s="2"/>
+    </row>
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K617" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K638" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991B787-451E-4440-BF85-04270676C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB21D4-A44E-CF48-A451-B243E8E6BDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8780" yWindow="1960" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FT fuel - Diesel'!$A$1:$K$638</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -186,9 +186,6 @@
     <t>Adapted from van der Giesen et al. 2014. LHV: 43.3 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Energy-based allocation between 3 other co-products. Allocation key for this co-product: 37%. Post corrected to preserve carbon balance.</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>Fixed bed reactor for RWGS</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>kerosene, synthetic</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>Kerosene production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, economic allocation</t>
   </si>
   <si>
@@ -500,6 +494,12 @@
   </si>
   <si>
     <t>ecoinvent</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 200 bar</t>
   </si>
 </sst>
 </file>
@@ -512,9 +512,16 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -601,23 +608,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -629,6 +636,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -969,7 +977,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -982,43 +990,43 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15">
@@ -1058,7 +1066,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15">
@@ -1098,7 +1106,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15">
@@ -1137,7 +1145,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15">
@@ -1176,7 +1184,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15">
@@ -1229,7 +1237,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1247,49 +1255,49 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -1332,7 +1340,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -1379,7 +1387,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -1425,7 +1433,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9">
@@ -1471,7 +1479,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9">
@@ -1533,7 +1541,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1558,10 +1566,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G639" sqref="G639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1576,21 +1585,21 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1606,15 +1615,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1630,12 +1639,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1655,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -1670,9 +1679,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1690,15 +1699,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="B12" s="9">
         <v>1.00057</v>
@@ -1716,7 +1725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1736,15 +1745,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>6</v>
@@ -1753,18 +1762,18 @@
         <v>17</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B15" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -1773,12 +1782,12 @@
         <v>17</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B16" s="10">
         <v>1.04E-10</v>
@@ -1793,18 +1802,18 @@
         <v>17</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="B17" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
@@ -1813,18 +1822,18 @@
         <v>17</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B18" s="10">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>22</v>
@@ -1833,18 +1842,18 @@
         <v>17</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B19" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
@@ -1853,32 +1862,32 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="B20" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="B21" s="9">
         <v>3.2599999999999997E-2</v>
@@ -1887,24 +1896,24 @@
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>22</v>
@@ -1913,12 +1922,12 @@
         <v>17</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B23" s="10">
         <f>(B12-1)*3.14</f>
@@ -1934,20 +1943,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1963,15 +1972,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1979,7 +1988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1987,12 +1996,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2012,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>9</v>
@@ -2027,9 +2036,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -2047,15 +2056,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="9">
         <v>1.00057</v>
@@ -2073,7 +2082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
@@ -2093,15 +2102,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="9">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>6</v>
@@ -2110,18 +2119,18 @@
         <v>17</v>
       </c>
       <c r="K36" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B37" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
@@ -2130,12 +2139,12 @@
         <v>17</v>
       </c>
       <c r="K37" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B38" s="10">
         <v>2.5999999999999998E-10</v>
@@ -2150,18 +2159,18 @@
         <v>17</v>
       </c>
       <c r="K38" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="B39" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -2170,18 +2179,18 @@
         <v>17</v>
       </c>
       <c r="K39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B40" s="10">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>22</v>
@@ -2190,18 +2199,18 @@
         <v>17</v>
       </c>
       <c r="K40" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B41" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>6</v>
@@ -2210,32 +2219,32 @@
         <v>17</v>
       </c>
       <c r="K41" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="B42" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="9" t="s">
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="B43" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2244,24 +2253,24 @@
         <v>8</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>22</v>
@@ -2270,12 +2279,12 @@
         <v>17</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" s="10">
         <f>(B34-1)*3.14</f>
@@ -2291,20 +2300,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2320,15 +2329,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -2344,12 +2353,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2369,13 +2378,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>9</v>
@@ -2384,9 +2393,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
@@ -2404,15 +2413,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="9">
         <v>1.00057</v>
@@ -2430,7 +2439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -2450,15 +2459,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="10">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>6</v>
@@ -2467,18 +2476,18 @@
         <v>17</v>
       </c>
       <c r="K58" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B59" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>18</v>
@@ -2487,12 +2496,12 @@
         <v>17</v>
       </c>
       <c r="K59" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B60" s="10">
         <v>1.04E-10</v>
@@ -2507,18 +2516,18 @@
         <v>17</v>
       </c>
       <c r="K60" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="B61" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>6</v>
@@ -2527,18 +2536,18 @@
         <v>17</v>
       </c>
       <c r="K61" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B62" s="10">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>22</v>
@@ -2547,18 +2556,18 @@
         <v>17</v>
       </c>
       <c r="K62" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B63" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>6</v>
@@ -2567,32 +2576,32 @@
         <v>17</v>
       </c>
       <c r="K63" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="B64" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="9" t="s">
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="B65" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2601,24 +2610,24 @@
         <v>8</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>22</v>
@@ -2627,12 +2636,12 @@
         <v>17</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="10">
         <f>(B56-1)*3.14</f>
@@ -2648,20 +2657,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2677,15 +2686,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2701,12 +2710,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2726,13 +2735,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>9</v>
@@ -2741,9 +2750,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -2761,15 +2770,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" s="9">
         <v>1.00057</v>
@@ -2787,7 +2796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>23</v>
       </c>
@@ -2807,15 +2816,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="9">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>6</v>
@@ -2824,18 +2833,18 @@
         <v>17</v>
       </c>
       <c r="K80" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B81" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>18</v>
@@ -2844,12 +2853,12 @@
         <v>17</v>
       </c>
       <c r="K81" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B82" s="10">
         <v>2.5999999999999998E-10</v>
@@ -2864,18 +2873,18 @@
         <v>17</v>
       </c>
       <c r="K82" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="B83" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>6</v>
@@ -2884,18 +2893,18 @@
         <v>17</v>
       </c>
       <c r="K83" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B84" s="10">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>22</v>
@@ -2904,18 +2913,18 @@
         <v>17</v>
       </c>
       <c r="K84" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B85" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>6</v>
@@ -2924,32 +2933,32 @@
         <v>17</v>
       </c>
       <c r="K85" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="B86" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="9" t="s">
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="B87" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2958,24 +2967,24 @@
         <v>8</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>22</v>
@@ -2984,12 +2993,12 @@
         <v>17</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B89" s="10">
         <f>(B78-1)*3.14</f>
@@ -3005,20 +3014,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -3058,7 +3067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>35</v>
       </c>
@@ -3074,12 +3083,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -3108,9 +3117,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
@@ -3134,9 +3143,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B102" s="9">
         <v>0.73</v>
@@ -3151,15 +3160,15 @@
         <v>17</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B103" s="9">
         <f>3.64160231884058*0.06</f>
@@ -3178,9 +3187,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B104" s="9">
         <f>0.00107549913043478*0.06</f>
@@ -3190,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>20</v>
@@ -3199,7 +3208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>38</v>
       </c>
@@ -3222,9 +3231,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B106" s="9">
         <v>2.14</v>
@@ -3233,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>20</v>
@@ -3242,7 +3251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>23</v>
       </c>
@@ -3263,19 +3272,19 @@
         <v>25</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>35</v>
       </c>
@@ -3331,12 +3340,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -3365,9 +3374,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B119" s="9">
         <v>1</v>
@@ -3388,9 +3397,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120" s="9">
         <v>0.65</v>
@@ -3405,15 +3414,15 @@
         <v>17</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" s="9">
         <f>3.64160231884058*0.07</f>
@@ -3432,9 +3441,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" s="9">
         <f>0.00107549913043478*0.07</f>
@@ -3444,7 +3453,7 @@
         <v>22</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>20</v>
@@ -3453,7 +3462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>38</v>
       </c>
@@ -3476,9 +3485,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="9">
         <v>2.48</v>
@@ -3487,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>20</v>
@@ -3496,7 +3505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
@@ -3517,19 +3526,19 @@
         <v>25</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3569,7 +3578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>35</v>
       </c>
@@ -3585,12 +3594,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3619,9 +3628,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -3645,9 +3654,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B138" s="9">
         <v>0.98</v>
@@ -3662,15 +3671,15 @@
         <v>17</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B139" s="9">
         <f>3.64160231884058*0.16</f>
@@ -3689,9 +3698,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B140" s="9">
         <f>0.00107549913043478*0.16</f>
@@ -3701,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>20</v>
@@ -3710,7 +3719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>38</v>
       </c>
@@ -3733,9 +3742,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B142" s="9">
         <v>1.82</v>
@@ -3744,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>20</v>
@@ -3753,7 +3762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>23</v>
       </c>
@@ -3774,19 +3783,19 @@
         <v>25</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3794,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>35</v>
       </c>
@@ -3842,12 +3851,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3876,9 +3885,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B155" s="9">
         <v>1</v>
@@ -3902,9 +3911,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B156" s="9">
         <v>2.1</v>
@@ -3919,15 +3928,15 @@
         <v>17</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B157" s="9">
         <f>3.64160231884058*0.21</f>
@@ -3946,9 +3955,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B158" s="9">
         <f>0.00107549913043478*0.21</f>
@@ -3958,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>20</v>
@@ -3967,7 +3976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>38</v>
       </c>
@@ -3990,9 +3999,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B160" s="9">
         <v>0.13</v>
@@ -4010,7 +4019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>23</v>
       </c>
@@ -4031,21 +4040,21 @@
         <v>25</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -4085,7 +4094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>35</v>
       </c>
@@ -4101,12 +4110,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -4135,9 +4144,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B173" s="9">
         <v>1</v>
@@ -4161,9 +4170,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B174" s="9">
         <v>2.35</v>
@@ -4178,15 +4187,15 @@
         <v>17</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B175" s="9">
         <f>3.64160231884058*0.18</f>
@@ -4205,9 +4214,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B176" s="9">
         <f>0.00107549913043478*0.18</f>
@@ -4217,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>20</v>
@@ -4226,7 +4235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>38</v>
       </c>
@@ -4249,9 +4258,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B178" s="9">
         <v>0.22</v>
@@ -4269,7 +4278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>23</v>
       </c>
@@ -4290,19 +4299,19 @@
         <v>25</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>35</v>
       </c>
@@ -4358,12 +4367,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -4392,9 +4401,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B191" s="9">
         <v>1</v>
@@ -4415,9 +4424,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B192" s="9">
         <v>2.3199999999999998</v>
@@ -4432,15 +4441,15 @@
         <v>17</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B193" s="9">
         <f>3.64160231884058*0.24</f>
@@ -4459,9 +4468,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B194" s="9">
         <f>0.00107549913043478*0.24</f>
@@ -4471,7 +4480,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>20</v>
@@ -4480,7 +4489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>38</v>
       </c>
@@ -4503,9 +4512,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B196" s="9">
         <v>0.19</v>
@@ -4514,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>20</v>
@@ -4523,7 +4532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>23</v>
       </c>
@@ -4544,19 +4553,19 @@
         <v>25</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>35</v>
       </c>
@@ -4612,12 +4621,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4646,9 +4655,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B209" s="9">
         <v>1</v>
@@ -4672,9 +4681,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B210" s="9">
         <v>2.2599999999999998</v>
@@ -4689,15 +4698,15 @@
         <v>17</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H210" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B211" s="9">
         <f>3.64160231884058*0.37</f>
@@ -4716,9 +4725,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B212" s="9">
         <f>0.00107549913043478*0.37</f>
@@ -4728,7 +4737,7 @@
         <v>22</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>20</v>
@@ -4737,7 +4746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>38</v>
       </c>
@@ -4760,9 +4769,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B214" s="9">
         <v>0.05</v>
@@ -4771,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>20</v>
@@ -4780,7 +4789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>23</v>
       </c>
@@ -4801,19 +4810,19 @@
         <v>25</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4821,15 +4830,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>35</v>
       </c>
@@ -4869,12 +4878,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4897,9 +4906,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B227" s="9">
         <v>0.875</v>
@@ -4918,8 +4927,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="11" t="s">
-        <v>108</v>
+      <c r="A228" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="B228" s="9">
         <v>0.125</v>
@@ -4933,13 +4942,13 @@
       <c r="F228" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G228" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B229" s="9">
         <v>1</v>
@@ -4954,10 +4963,10 @@
         <v>15</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>27</v>
       </c>
@@ -4974,18 +4983,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>1</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>2</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>3</v>
       </c>
@@ -5009,7 +5018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>5</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>7</v>
       </c>
@@ -5025,7 +5034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>9</v>
       </c>
@@ -5033,12 +5042,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -5061,9 +5070,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B241" s="9">
         <v>1</v>
@@ -5082,8 +5091,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="11" t="s">
-        <v>108</v>
+      <c r="A242" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="B242" s="9">
         <v>7.0000000000000007E-2</v>
@@ -5097,13 +5106,13 @@
       <c r="F242" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G242" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="G242" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B243" s="9">
         <v>1.57</v>
@@ -5121,9 +5130,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B244" s="10">
         <v>1.9300000000000002E-9</v>
@@ -5138,13 +5147,13 @@
         <v>17</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="10"/>
     </row>
-    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +5161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -5184,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -5192,15 +5201,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -5208,12 +5217,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>38</v>
       </c>
@@ -5256,15 +5265,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B257" s="3">
         <v>345000</v>
       </c>
       <c r="C257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D257" t="s">
         <v>22</v>
@@ -5273,10 +5282,10 @@
         <v>17</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>29</v>
       </c>
@@ -5296,9 +5305,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B259" s="3">
         <v>7200000</v>
@@ -5313,38 +5322,38 @@
         <v>17</v>
       </c>
       <c r="G259" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>58</v>
       </c>
       <c r="B260" s="3">
         <v>-828000000</v>
       </c>
       <c r="C260" t="s">
+        <v>58</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
+        <v>17</v>
+      </c>
+      <c r="G260" t="s">
         <v>59</v>
       </c>
-      <c r="D260" t="s">
-        <v>6</v>
-      </c>
-      <c r="F260" t="s">
-        <v>17</v>
-      </c>
-      <c r="G260" t="s">
+    </row>
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>61</v>
       </c>
       <c r="B261" s="3">
         <v>-14400000</v>
       </c>
       <c r="C261" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D261" t="s">
         <v>6</v>
@@ -5353,27 +5362,28 @@
         <v>17</v>
       </c>
       <c r="G261" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>63</v>
       </c>
       <c r="B262" s="3">
         <v>1120000</v>
       </c>
       <c r="D262" t="s">
+        <v>63</v>
+      </c>
+      <c r="E262" t="s">
         <v>64</v>
-      </c>
-      <c r="E262" t="s">
-        <v>65</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5421,12 +5431,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>29</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -5489,15 +5499,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="275" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -5505,15 +5516,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -5521,7 +5532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5537,15 +5548,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>35</v>
       </c>
@@ -5553,12 +5564,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -5581,9 +5592,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5598,12 +5609,12 @@
         <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B286">
         <v>0.56999999999999995</v>
@@ -5618,32 +5629,32 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>70</v>
       </c>
       <c r="B287">
         <v>0.11</v>
       </c>
       <c r="C287" t="s">
+        <v>70</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" t="s">
         <v>71</v>
       </c>
-      <c r="D287" t="s">
-        <v>6</v>
-      </c>
-      <c r="F287" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" t="s">
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>73</v>
       </c>
       <c r="B288">
         <v>0.31</v>
@@ -5658,18 +5669,19 @@
         <v>17</v>
       </c>
       <c r="G288" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="290" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -5677,15 +5689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>3</v>
       </c>
@@ -5693,7 +5705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -5701,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -5709,15 +5721,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>35</v>
       </c>
@@ -5725,12 +5737,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -5756,9 +5768,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5773,12 +5785,12 @@
         <v>15</v>
       </c>
       <c r="G300" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B301" s="3">
         <f>4760/2</f>
@@ -5794,21 +5806,21 @@
         <v>17</v>
       </c>
       <c r="G301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H301" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B302" s="3">
         <v>-9520</v>
       </c>
       <c r="C302" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D302" t="s">
         <v>6</v>
@@ -5817,12 +5829,12 @@
         <v>17</v>
       </c>
       <c r="G302" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B303" s="3">
         <f>4760/2</f>
@@ -5838,15 +5850,15 @@
         <v>17</v>
       </c>
       <c r="G303" t="s">
+        <v>78</v>
+      </c>
+      <c r="H303" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>79</v>
-      </c>
-      <c r="H303" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>80</v>
       </c>
       <c r="B304" s="3">
         <v>26700</v>
@@ -5861,15 +5873,15 @@
         <v>17</v>
       </c>
       <c r="G304" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H304" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B305" s="3">
         <v>6600</v>
@@ -5884,333 +5896,580 @@
         <v>17</v>
       </c>
       <c r="G305" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H305" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B315" s="3"/>
     </row>
-    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
     </row>
-    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="G327" s="4"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="G344" s="4"/>
     </row>
-    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B361" s="3"/>
     </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
     </row>
-    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B378" s="5"/>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B407" s="3"/>
     </row>
-    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
     </row>
-    <row r="419" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="419" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" s="5"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="5"/>
     </row>
-    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="435" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="439" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="446" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="446" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B452" s="3"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B453" s="3"/>
     </row>
-    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="455" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="462" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
     </row>
-    <row r="465" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="465" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="G465" s="4"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B469" s="5"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B470" s="5"/>
     </row>
-    <row r="471" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="478" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="478" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
     </row>
-    <row r="481" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="G482" s="4"/>
     </row>
-    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="492" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B498" s="3"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B499" s="3"/>
     </row>
-    <row r="501" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="501" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="508" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
     </row>
-    <row r="511" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="G511" s="4"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B515" s="5"/>
     </row>
-    <row r="517" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="517" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="524" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="524" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
     </row>
-    <row r="527" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="527" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="G528" s="4"/>
     </row>
-    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="530" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="537" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B543" s="3"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B544" s="3"/>
     </row>
-    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="546" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="553" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="553" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
     </row>
-    <row r="556" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="556" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="G556" s="4"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B560" s="5"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B561" s="5"/>
     </row>
-    <row r="562" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="569" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
     </row>
-    <row r="572" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="572" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="G573" s="4"/>
     </row>
-    <row r="576" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B589" s="3"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B590" s="3"/>
     </row>
-    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="592" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="599" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="599" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
     </row>
-    <row r="602" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="602" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="G602" s="4"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B606" s="5"/>
     </row>
-    <row r="608" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="615" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
     </row>
-    <row r="618" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="G619" s="4"/>
     </row>
-    <row r="621" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="627" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
     </row>
-    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="632" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="638" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K638" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K638" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33EEF5-F2FF-644B-9905-5AC5159790CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81439CB-7FE2-0C45-B6D3-5E5F73412821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32840" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>electricity, low voltage</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>RWGS tank construction</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>Carbon dioxide, in air</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -533,6 +527,12 @@
   </si>
   <si>
     <t xml:space="preserve"> A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured, with a solvent-based direct air capture system, 1MtCO2</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured</t>
   </si>
 </sst>
 </file>
@@ -546,9 +546,16 @@
     <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -642,23 +649,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -670,13 +677,14 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -697,9 +705,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -737,7 +745,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -843,7 +851,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -985,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,56 +1025,56 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15">
@@ -1106,7 +1114,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15">
@@ -1146,7 +1154,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15">
@@ -1185,7 +1193,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15">
@@ -1224,7 +1232,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15">
@@ -1277,7 +1285,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1295,43 +1303,43 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15">
@@ -1373,7 +1381,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15">
@@ -1404,13 +1412,13 @@
         <v>3.1103142052332684</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15">
@@ -1451,7 +1459,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15">
@@ -1491,7 +1499,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15">
@@ -1522,7 +1530,7 @@
         <v>3.0713541108044597</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K22" s="17"/>
     </row>
@@ -1541,7 +1549,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1559,49 +1567,49 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9">
@@ -1644,7 +1652,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9">
@@ -1691,7 +1699,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9">
@@ -1737,7 +1745,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9">
@@ -1783,7 +1791,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9">
@@ -1845,7 +1853,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1870,10 +1878,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G657" sqref="G657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1888,21 +1897,21 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1918,15 +1927,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1942,12 +1951,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1967,13 +1976,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -1982,9 +1991,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -2002,15 +2011,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="B12" s="9">
         <v>1.00057</v>
@@ -2025,10 +2034,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2048,15 +2057,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>6</v>
@@ -2065,18 +2074,18 @@
         <v>17</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B15" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -2085,12 +2094,12 @@
         <v>17</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="B16" s="10">
         <v>1.04E-10</v>
@@ -2105,18 +2114,18 @@
         <v>17</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B17" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
@@ -2125,18 +2134,18 @@
         <v>17</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="B18" s="10">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>22</v>
@@ -2145,18 +2154,18 @@
         <v>17</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="B19" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
@@ -2165,32 +2174,32 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="B20" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="B21" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2199,24 +2208,24 @@
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>22</v>
@@ -2225,12 +2234,12 @@
         <v>17</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10">
         <f>(B12-1)*3.14</f>
@@ -2246,20 +2255,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -2275,15 +2284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -2299,12 +2308,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2324,13 +2333,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>9</v>
@@ -2339,9 +2348,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -2359,15 +2368,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="9">
         <v>1.00057</v>
@@ -2382,10 +2391,10 @@
         <v>17</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
@@ -2405,15 +2414,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="9">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>6</v>
@@ -2422,18 +2431,18 @@
         <v>17</v>
       </c>
       <c r="K36" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B37" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
@@ -2442,12 +2451,12 @@
         <v>17</v>
       </c>
       <c r="K37" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="B38" s="10">
         <v>2.5999999999999998E-10</v>
@@ -2462,18 +2471,18 @@
         <v>17</v>
       </c>
       <c r="K38" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B39" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
@@ -2482,18 +2491,18 @@
         <v>17</v>
       </c>
       <c r="K39" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="B40" s="10">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>22</v>
@@ -2502,18 +2511,18 @@
         <v>17</v>
       </c>
       <c r="K40" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="B41" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>6</v>
@@ -2522,32 +2531,32 @@
         <v>17</v>
       </c>
       <c r="K41" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="B42" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="9" t="s">
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="B43" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2556,24 +2565,24 @@
         <v>8</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>22</v>
@@ -2582,12 +2591,12 @@
         <v>17</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="10">
         <f>(B34-1)*3.14</f>
@@ -2603,20 +2612,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2632,15 +2641,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -2656,12 +2665,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2681,13 +2690,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>9</v>
@@ -2696,9 +2705,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
@@ -2716,15 +2725,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="9">
         <v>1.00057</v>
@@ -2739,10 +2748,10 @@
         <v>17</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -2762,15 +2771,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="10">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>6</v>
@@ -2779,18 +2788,18 @@
         <v>17</v>
       </c>
       <c r="K58" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B59" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>18</v>
@@ -2799,12 +2808,12 @@
         <v>17</v>
       </c>
       <c r="K59" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="B60" s="10">
         <v>1.04E-10</v>
@@ -2819,18 +2828,18 @@
         <v>17</v>
       </c>
       <c r="K60" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B61" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>6</v>
@@ -2839,18 +2848,18 @@
         <v>17</v>
       </c>
       <c r="K61" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="B62" s="10">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>22</v>
@@ -2859,18 +2868,18 @@
         <v>17</v>
       </c>
       <c r="K62" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="B63" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>6</v>
@@ -2879,32 +2888,32 @@
         <v>17</v>
       </c>
       <c r="K63" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="B64" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="9" t="s">
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="B65" s="9">
         <v>3.2599999999999997E-2</v>
@@ -2913,24 +2922,24 @@
         <v>8</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>22</v>
@@ -2939,12 +2948,12 @@
         <v>17</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="10">
         <f>(B56-1)*3.14</f>
@@ -2960,20 +2969,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2989,15 +2998,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -3013,12 +3022,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -3038,13 +3047,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>9</v>
@@ -3053,9 +3062,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
@@ -3073,15 +3082,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="9">
         <v>1.00057</v>
@@ -3096,10 +3105,10 @@
         <v>17</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>23</v>
       </c>
@@ -3119,15 +3128,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="9">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>6</v>
@@ -3136,18 +3145,18 @@
         <v>17</v>
       </c>
       <c r="K80" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B81" s="10">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>18</v>
@@ -3156,12 +3165,12 @@
         <v>17</v>
       </c>
       <c r="K81" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="B82" s="10">
         <v>2.5999999999999998E-10</v>
@@ -3176,18 +3185,18 @@
         <v>17</v>
       </c>
       <c r="K82" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B83" s="10">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>6</v>
@@ -3196,18 +3205,18 @@
         <v>17</v>
       </c>
       <c r="K83" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="B84" s="10">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>22</v>
@@ -3216,18 +3225,18 @@
         <v>17</v>
       </c>
       <c r="K84" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="B85" s="10">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>6</v>
@@ -3236,32 +3245,32 @@
         <v>17</v>
       </c>
       <c r="K85" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="B86" s="9">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="9" t="s">
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="B87" s="9">
         <v>3.2599999999999997E-2</v>
@@ -3270,24 +3279,24 @@
         <v>8</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="10">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>22</v>
@@ -3296,12 +3305,12 @@
         <v>17</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="10">
         <f>(B78-1)*3.14</f>
@@ -3317,20 +3326,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -3338,15 +3347,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +3371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -3370,28 +3379,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -3420,9 +3429,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
@@ -3437,18 +3446,18 @@
         <v>15</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="9">
         <v>0.73</v>
@@ -3463,15 +3472,15 @@
         <v>17</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B103" s="9">
         <f>3.64160231884058*0.06</f>
@@ -3490,9 +3499,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="9">
         <f>0.00107549913043478*0.06</f>
@@ -3502,7 +3511,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>20</v>
@@ -3511,15 +3520,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B105" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>5</v>
@@ -3528,15 +3537,15 @@
         <v>17</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="9">
         <v>2.14</v>
@@ -3545,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>20</v>
@@ -3554,7 +3563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>23</v>
       </c>
@@ -3575,19 +3584,19 @@
         <v>25</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -3595,15 +3604,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -3627,28 +3636,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -3677,9 +3686,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119" s="9">
         <v>1</v>
@@ -3694,15 +3703,15 @@
         <v>15</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="9">
         <v>0.65</v>
@@ -3717,15 +3726,15 @@
         <v>17</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B121" s="9">
         <f>3.64160231884058*0.07</f>
@@ -3744,9 +3753,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B122" s="9">
         <f>0.00107549913043478*0.07</f>
@@ -3756,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>20</v>
@@ -3765,15 +3774,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B123" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>5</v>
@@ -3782,15 +3791,15 @@
         <v>17</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="9">
         <v>2.48</v>
@@ -3799,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>20</v>
@@ -3808,7 +3817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
@@ -3829,19 +3838,19 @@
         <v>25</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -3849,15 +3858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3881,28 +3890,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3931,9 +3940,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -3948,18 +3957,18 @@
         <v>15</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I137" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B138" s="9">
         <v>0.98</v>
@@ -3974,15 +3983,15 @@
         <v>17</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B139" s="9">
         <f>3.64160231884058*0.16</f>
@@ -4001,9 +4010,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B140" s="9">
         <f>0.00107549913043478*0.16</f>
@@ -4013,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>20</v>
@@ -4022,15 +4031,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B141" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>5</v>
@@ -4039,15 +4048,15 @@
         <v>17</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="9">
         <v>1.82</v>
@@ -4056,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>20</v>
@@ -4065,7 +4074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>23</v>
       </c>
@@ -4086,19 +4095,19 @@
         <v>25</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -4106,15 +4115,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -4138,28 +4147,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -4188,9 +4197,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B155" s="9">
         <v>1</v>
@@ -4205,18 +4214,18 @@
         <v>15</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B156" s="9">
         <v>2.1</v>
@@ -4231,15 +4240,15 @@
         <v>17</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B157" s="9">
         <f>3.64160231884058*0.21</f>
@@ -4258,9 +4267,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B158" s="9">
         <f>0.00107549913043478*0.21</f>
@@ -4270,7 +4279,7 @@
         <v>22</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>20</v>
@@ -4279,15 +4288,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B159" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>5</v>
@@ -4296,15 +4305,15 @@
         <v>17</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B160" s="9">
         <v>0.13</v>
@@ -4322,7 +4331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>23</v>
       </c>
@@ -4343,21 +4352,21 @@
         <v>25</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -4365,15 +4374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -4389,7 +4398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -4397,28 +4406,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -4447,9 +4456,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B173" s="9">
         <v>1</v>
@@ -4464,18 +4473,18 @@
         <v>15</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B174" s="9">
         <v>2.35</v>
@@ -4490,15 +4499,15 @@
         <v>17</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B175" s="9">
         <f>3.64160231884058*0.18</f>
@@ -4517,9 +4526,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B176" s="9">
         <f>0.00107549913043478*0.18</f>
@@ -4529,7 +4538,7 @@
         <v>22</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>20</v>
@@ -4538,15 +4547,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B177" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>5</v>
@@ -4555,15 +4564,15 @@
         <v>17</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B178" s="9">
         <v>0.22</v>
@@ -4581,7 +4590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>23</v>
       </c>
@@ -4602,19 +4611,19 @@
         <v>25</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -4622,15 +4631,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -4654,28 +4663,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -4704,9 +4713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B191" s="9">
         <v>1</v>
@@ -4721,15 +4730,15 @@
         <v>15</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B192" s="9">
         <v>2.3199999999999998</v>
@@ -4744,15 +4753,15 @@
         <v>17</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B193" s="9">
         <f>3.64160231884058*0.24</f>
@@ -4771,9 +4780,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B194" s="9">
         <f>0.00107549913043478*0.24</f>
@@ -4783,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>20</v>
@@ -4792,15 +4801,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B195" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>5</v>
@@ -4809,15 +4818,15 @@
         <v>17</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B196" s="9">
         <v>0.19</v>
@@ -4826,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>20</v>
@@ -4835,7 +4844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>23</v>
       </c>
@@ -4856,19 +4865,19 @@
         <v>25</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -4876,15 +4885,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4908,28 +4917,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4958,9 +4967,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B209" s="9">
         <v>1</v>
@@ -4975,18 +4984,18 @@
         <v>15</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I209" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B210" s="9">
         <v>2.2599999999999998</v>
@@ -5001,15 +5010,15 @@
         <v>17</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B211" s="9">
         <f>3.64160231884058*0.37</f>
@@ -5028,9 +5037,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B212" s="9">
         <f>0.00107549913043478*0.37</f>
@@ -5040,7 +5049,7 @@
         <v>22</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>20</v>
@@ -5049,15 +5058,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B213" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>5</v>
@@ -5066,15 +5075,15 @@
         <v>17</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B214" s="9">
         <v>0.05</v>
@@ -5083,7 +5092,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>20</v>
@@ -5092,7 +5101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>23</v>
       </c>
@@ -5113,19 +5122,19 @@
         <v>25</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -5133,15 +5142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -5157,7 +5166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -5165,28 +5174,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="str">
         <f>B217</f>
         <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</v>
@@ -5237,9 +5246,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B228" s="9">
         <v>2.2799999999999998</v>
@@ -5254,12 +5263,12 @@
         <v>17</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B229" s="9">
         <f>3.64160231884058*0.11</f>
@@ -5275,9 +5284,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B230" s="9">
         <f>0.00107549913043478*0.11</f>
@@ -5287,21 +5296,21 @@
         <v>22</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B231" s="10">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>5</v>
@@ -5310,12 +5319,12 @@
         <v>17</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B232" s="9">
         <v>-0.13</v>
@@ -5324,13 +5333,13 @@
         <v>6</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F232" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>23</v>
       </c>
@@ -5351,16 +5360,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:8" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>1</v>
       </c>
@@ -5368,15 +5377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>3</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>5</v>
       </c>
@@ -5392,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>7</v>
       </c>
@@ -5400,28 +5409,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B242" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B242" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -5444,9 +5453,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B245" s="9">
         <v>0.875</v>
@@ -5461,12 +5470,12 @@
         <v>17</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B246" s="9">
         <v>0.125</v>
@@ -5481,12 +5490,12 @@
         <v>17</v>
       </c>
       <c r="G246" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B247" s="9">
         <v>1</v>
@@ -5501,18 +5510,18 @@
         <v>15</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B248" s="12">
         <v>5.7100000000000004E-6</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>5</v>
@@ -5521,18 +5530,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>1</v>
       </c>
@@ -5540,15 +5549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>3</v>
       </c>
@@ -5556,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>5</v>
       </c>
@@ -5564,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>7</v>
       </c>
@@ -5572,20 +5581,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -5608,9 +5617,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B259" s="9">
         <v>1</v>
@@ -5625,12 +5634,12 @@
         <v>15</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B260" s="9">
         <v>7.0000000000000007E-2</v>
@@ -5645,12 +5654,12 @@
         <v>17</v>
       </c>
       <c r="G260" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="11" t="s">
-        <v>126</v>
+      <c r="A261" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="B261" s="9">
         <v>1.57</v>
@@ -5664,13 +5673,13 @@
       <c r="F261" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G261" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G261" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B262" s="10">
         <v>1.9300000000000002E-9</v>
@@ -5685,21 +5694,21 @@
         <v>17</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B263" s="10"/>
     </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -5707,15 +5716,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5731,36 +5740,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271" t="s">
         <v>35</v>
       </c>
-      <c r="B271" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -5783,15 +5792,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D274" t="s">
         <v>5</v>
@@ -5800,18 +5809,18 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B275" s="3">
         <v>345000</v>
       </c>
       <c r="C275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D275" t="s">
         <v>22</v>
@@ -5820,18 +5829,18 @@
         <v>17</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B276" s="3">
         <v>7200000</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D276" t="s">
         <v>6</v>
@@ -5840,18 +5849,18 @@
         <v>17</v>
       </c>
       <c r="G276" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B277" s="3">
         <v>7200000</v>
       </c>
       <c r="C277" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D277" t="s">
         <v>6</v>
@@ -5860,38 +5869,38 @@
         <v>17</v>
       </c>
       <c r="G277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>57</v>
       </c>
       <c r="B278" s="3">
         <v>-828000000</v>
       </c>
       <c r="C278" t="s">
+        <v>57</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" t="s">
         <v>58</v>
       </c>
-      <c r="D278" t="s">
-        <v>6</v>
-      </c>
-      <c r="F278" t="s">
-        <v>17</v>
-      </c>
-      <c r="G278" t="s">
+    </row>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>60</v>
       </c>
       <c r="B279" s="3">
         <v>-14400000</v>
       </c>
       <c r="C279" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D279" t="s">
         <v>6</v>
@@ -5900,35 +5909,36 @@
         <v>17</v>
       </c>
       <c r="G279" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>62</v>
       </c>
       <c r="B280" s="3">
         <v>1120000</v>
       </c>
       <c r="D280" t="s">
+        <v>62</v>
+      </c>
+      <c r="E280" t="s">
         <v>63</v>
-      </c>
-      <c r="E280" t="s">
-        <v>64</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -5936,15 +5946,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +5962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5960,20 +5970,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -5996,15 +6006,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B290">
         <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D290" t="s">
         <v>6</v>
@@ -6013,18 +6023,18 @@
         <v>17</v>
       </c>
       <c r="G290" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D291" t="s">
         <v>5</v>
@@ -6033,18 +6043,19 @@
         <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -6052,15 +6063,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -6076,7 +6087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -6084,28 +6095,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300" t="s">
         <v>35</v>
       </c>
-      <c r="B300" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6128,9 +6139,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -6145,18 +6156,18 @@
         <v>15</v>
       </c>
       <c r="G303" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B304">
         <v>0.56999999999999995</v>
       </c>
       <c r="C304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D304" t="s">
         <v>6</v>
@@ -6165,38 +6176,38 @@
         <v>17</v>
       </c>
       <c r="G304" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>69</v>
       </c>
       <c r="B305">
         <v>0.11</v>
       </c>
       <c r="C305" t="s">
+        <v>69</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
         <v>70</v>
       </c>
-      <c r="D305" t="s">
-        <v>6</v>
-      </c>
-      <c r="F305" t="s">
-        <v>17</v>
-      </c>
-      <c r="G305" t="s">
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>72</v>
       </c>
       <c r="B306">
         <v>0.31</v>
       </c>
       <c r="C306" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D306" t="s">
         <v>6</v>
@@ -6205,18 +6216,19 @@
         <v>17</v>
       </c>
       <c r="G306" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -6224,15 +6236,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2</v>
       </c>
       <c r="B310" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6248,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -6256,28 +6268,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>34</v>
+      </c>
+      <c r="B315" t="s">
         <v>35</v>
       </c>
-      <c r="B315" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -6303,9 +6315,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6320,19 +6332,19 @@
         <v>15</v>
       </c>
       <c r="G318" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B319" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
       <c r="C319" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
@@ -6341,21 +6353,21 @@
         <v>17</v>
       </c>
       <c r="G319" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H319" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B320" s="3">
         <v>-9520</v>
       </c>
       <c r="C320" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D320" t="s">
         <v>6</v>
@@ -6364,19 +6376,19 @@
         <v>17</v>
       </c>
       <c r="G320" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B321" s="3">
         <f>4760/2</f>
         <v>2380</v>
       </c>
       <c r="C321" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D321" t="s">
         <v>6</v>
@@ -6385,21 +6397,21 @@
         <v>17</v>
       </c>
       <c r="G321" t="s">
+        <v>77</v>
+      </c>
+      <c r="H321" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>78</v>
-      </c>
-      <c r="H321" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>79</v>
       </c>
       <c r="B322" s="3">
         <v>26700</v>
       </c>
       <c r="C322" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D322" t="s">
         <v>6</v>
@@ -6408,15 +6420,15 @@
         <v>17</v>
       </c>
       <c r="G322" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H322" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B323" s="3">
         <v>6600</v>
@@ -6431,333 +6443,582 @@
         <v>17</v>
       </c>
       <c r="G323" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H323" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" s="3"/>
     </row>
-    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
     </row>
-    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
     </row>
-    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="G362" s="4"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B379" s="3"/>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="381" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
     </row>
-    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
     </row>
-    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="418" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B425" s="3"/>
     </row>
-    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
     </row>
-    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B442" s="5"/>
     </row>
-    <row r="443" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
     </row>
-    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="453" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="G454" s="4"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="464" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B470" s="3"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B471" s="3"/>
     </row>
-    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="473" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="480" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
     </row>
-    <row r="483" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="G483" s="4"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B487" s="5"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B488" s="5"/>
     </row>
-    <row r="489" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
     </row>
-    <row r="499" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="499" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="G500" s="4"/>
     </row>
-    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="510" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B516" s="3"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B517" s="3"/>
     </row>
-    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="519" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="526" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
     </row>
-    <row r="529" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="529" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="G529" s="4"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B533" s="5"/>
     </row>
-    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="535" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
     </row>
-    <row r="545" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="545" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="G546" s="4"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="555" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B562" s="3"/>
     </row>
-    <row r="564" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="564" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="571" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="571" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
     </row>
-    <row r="574" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="574" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="G574" s="4"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B578" s="5"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B579" s="5"/>
     </row>
-    <row r="580" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="587" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
     </row>
-    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="G591" s="4"/>
     </row>
-    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="594" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="601" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B607" s="3"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B608" s="3"/>
     </row>
-    <row r="610" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="610" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="617" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
     </row>
-    <row r="620" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="G620" s="4"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B624" s="5"/>
     </row>
-    <row r="626" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="633" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="633" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
     </row>
-    <row r="636" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="636" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="G637" s="4"/>
     </row>
-    <row r="639" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="639" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="645" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
     </row>
-    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K656" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K656" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2"/>
+        <filter val="Carbon dioxide, in air"/>
+        <filter val="Carbon dioxide, non-fossil"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81439CB-7FE2-0C45-B6D3-5E5F73412821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C2ABE-59DC-0E42-AB18-37944BE9FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Process description" sheetId="2" r:id="rId1"/>
@@ -1878,11 +1878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G657" sqref="G657"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1900,10 +1899,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1951,12 +1950,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>115</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>106</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>84</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>86</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>88</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>90</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>92</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>96</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>99</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>103</v>
       </c>
@@ -2255,12 +2254,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -2308,12 +2307,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>116</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>84</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>86</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>90</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>92</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>94</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>96</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>103</v>
       </c>
@@ -2612,12 +2611,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -2665,12 +2664,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>108</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>84</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>86</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>88</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>90</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>94</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>96</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>103</v>
       </c>
@@ -2969,12 +2968,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -3022,12 +3021,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>118</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>109</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>23</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>84</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>86</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>88</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>90</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>92</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>94</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>96</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>99</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>103</v>
       </c>
@@ -3326,12 +3325,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>34</v>
       </c>
@@ -3395,12 +3394,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>106</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>114</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>146</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>147</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>23</v>
       </c>
@@ -3587,8 +3586,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>34</v>
       </c>
@@ -3652,12 +3651,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>110</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>114</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>146</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>147</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>37</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
@@ -3841,8 +3840,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>34</v>
       </c>
@@ -3906,12 +3905,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>107</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>114</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>146</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>147</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>37</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>23</v>
       </c>
@@ -4098,8 +4097,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>34</v>
       </c>
@@ -4163,12 +4162,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>111</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>114</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>146</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>147</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>37</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>23</v>
       </c>
@@ -4355,10 +4354,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>34</v>
       </c>
@@ -4422,12 +4421,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>108</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>114</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>146</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>147</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>37</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>23</v>
       </c>
@@ -4614,8 +4613,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>34</v>
       </c>
@@ -4679,12 +4678,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>112</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>114</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>146</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>147</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>37</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>23</v>
       </c>
@@ -4868,8 +4867,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>34</v>
       </c>
@@ -4933,12 +4932,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>109</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>114</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>146</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>147</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>37</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>23</v>
       </c>
@@ -5125,8 +5124,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>34</v>
       </c>
@@ -5190,12 +5189,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="str">
         <f>B217</f>
         <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</v>
@@ -5246,7 +5245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>114</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>146</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>147</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>23</v>
       </c>
@@ -5360,8 +5359,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:8" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>2</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>3</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>7</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>9</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>34</v>
       </c>
@@ -5425,12 +5424,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>113</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="24" t="s">
         <v>150</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>114</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>26</v>
       </c>
@@ -5530,10 +5529,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>3</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>7</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>9</v>
       </c>
@@ -5589,12 +5588,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>113</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="24" t="s">
         <v>150</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>48</v>
       </c>
@@ -5697,10 +5696,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="10"/>
     </row>
-    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>34</v>
       </c>
@@ -5764,12 +5763,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>37</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>56</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>59</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>61</v>
       </c>
@@ -5929,8 +5928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -5962,7 +5960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5970,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -5978,12 +5976,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -6006,7 +6004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>28</v>
       </c>
@@ -6026,7 +6024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -6046,8 +6044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
@@ -6055,7 +6052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -6079,7 +6076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -6087,7 +6084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -6095,7 +6092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -6111,12 +6108,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>64</v>
       </c>
@@ -6159,7 +6156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>66</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>68</v>
       </c>
@@ -6199,7 +6196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>71</v>
       </c>
@@ -6219,8 +6216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>0</v>
       </c>
@@ -6228,7 +6224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -6252,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6260,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -6276,7 +6272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>34</v>
       </c>
@@ -6284,12 +6280,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -6315,7 +6311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>48</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>74</v>
       </c>
@@ -6359,7 +6355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>59</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>76</v>
       </c>
@@ -6403,7 +6399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>78</v>
       </c>
@@ -6426,7 +6422,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>64</v>
       </c>
@@ -6449,576 +6445,327 @@
         <v>121</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B425" s="3"/>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B442" s="5"/>
     </row>
-    <row r="443" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B470" s="3"/>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B471" s="3"/>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B487" s="5"/>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B488" s="5"/>
     </row>
-    <row r="489" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="499" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="503" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B516" s="3"/>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B517" s="3"/>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="529" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B533" s="5"/>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="545" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B562" s="3"/>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B578" s="5"/>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B579" s="5"/>
     </row>
-    <row r="580" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="587" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="590" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="594" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="601" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B607" s="3"/>
     </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B608" s="3"/>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="610" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B624" s="5"/>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="626" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="633" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="636" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="639" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="645" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
     </row>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K656" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2"/>
-        <filter val="Carbon dioxide, in air"/>
-        <filter val="Carbon dioxide, non-fossil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K656" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
